--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_1_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_1_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2043665.314743592</v>
+        <v>1988706.067831509</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>401875.4619162703</v>
+        <v>401875.4619162701</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7126925.655338087</v>
+        <v>7126925.655338088</v>
       </c>
     </row>
     <row r="11">
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -788,19 +788,19 @@
         <v>3.199249640013477</v>
       </c>
       <c r="S3" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>2.817899082923868</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -980,13 +980,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>2.817899082923868</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1226,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1256,16 +1256,16 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.199249640013477</v>
+        <v>2.817899082923868</v>
       </c>
       <c r="R9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>2.817899082923868</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>374.0872403778333</v>
+        <v>344.5434281310004</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>194.7559596865454</v>
       </c>
       <c r="T11" t="n">
-        <v>216.1724560503182</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0355274371477</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y11" t="n">
-        <v>201.9273823861738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>1.068716797151427</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>86.96041768653853</v>
+        <v>86.96041768653852</v>
       </c>
       <c r="S12" t="n">
         <v>177.3027871211308</v>
@@ -1511,13 +1511,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W12" t="n">
-        <v>185.3784159056991</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="13">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>8.203131165419027</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>76.71944431212248</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>145.4593121702873</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.64575573398511</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>288.6213810509761</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>382.1398121967276</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.0355274371477</v>
       </c>
       <c r="V14" t="n">
-        <v>218.0800343107403</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1694,19 +1694,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.068716797150984</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>118.3064371605275</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>80.87915226579209</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>86.96041768653853</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>177.3027871211308</v>
       </c>
       <c r="T15" t="n">
-        <v>211.8704098253805</v>
+        <v>195.5909666199631</v>
       </c>
       <c r="U15" t="n">
         <v>237.1774626343188</v>
@@ -1748,7 +1748,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W15" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>217.3129144394706</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>74.90505680815262</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>145.4593121702873</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>9.689058833882612</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>417.4004972688733</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>232.9973961823497</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>382.2855674184499</v>
+        <v>96.26459978207377</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
@@ -1937,13 +1937,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>147.9753801635659</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>118.3064371605275</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>80.8791522657921</v>
+        <v>4.912072568940008</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>86.96041768653852</v>
       </c>
       <c r="S18" t="n">
-        <v>177.3027871211308</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>211.8704098253805</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>60.49048432704976</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>136.7337891288171</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2019,13 +2019,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>160.0907230875781</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>8.203131165418801</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6213810509761</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>417.4004972688733</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>104.5721495832593</v>
+        <v>31.71508044538641</v>
       </c>
       <c r="S20" t="n">
-        <v>113.5078847274812</v>
+        <v>194.7559596865454</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y20" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>25.42097509816616</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>177.3027871211308</v>
       </c>
       <c r="T21" t="n">
-        <v>211.8704098253805</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>237.1774626343188</v>
@@ -2228,7 +2228,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>65.28068785459826</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>157.8976299979482</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>6.513805127059656</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>117.1782820036373</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>417.4004972688733</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>177.6635539133389</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.1724560503182</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0355274371477</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="24">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
@@ -2408,13 +2408,13 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>147.9753801635659</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>118.3064371605275</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>80.8791522657921</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>8.105934117958443</v>
+        <v>56.41241650622031</v>
       </c>
       <c r="S24" t="n">
         <v>177.3027871211308</v>
@@ -2456,16 +2456,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>79.68323940222645</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>8.203131165418801</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>288.6213810509761</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>184.3732818913325</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>417.4004972688733</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>75.65666734648866</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.1724560503182</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.0355274371477</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2636,25 +2636,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>147.9753801635659</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>80.8791522657921</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>86.96041768653853</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>177.3027871211308</v>
@@ -2693,16 +2693,16 @@
         <v>237.1774626343188</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>143.5738506653854</v>
+        <v>152.6223824624695</v>
       </c>
     </row>
     <row r="28">
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6213810509761</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>8.203131165419027</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>79.68323940222645</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>417.4004972688733</v>
+        <v>38.50357781616825</v>
       </c>
       <c r="H29" t="n">
-        <v>332.2978024096751</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>185.5837770312069</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>104.5721495832593</v>
       </c>
       <c r="S29" t="n">
-        <v>194.7559596865454</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>77.61481576969098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2879,19 +2879,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>17.85171445674715</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>147.9753801635659</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>118.3064371605275</v>
       </c>
       <c r="I30" t="n">
-        <v>80.8791522657921</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>39.75875961859133</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>211.8704098253805</v>
       </c>
       <c r="U30" t="n">
         <v>237.1774626343188</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>75.81840064391602</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.0061115724788</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>6.513805127059663</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,22 +3034,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>332.2978024096751</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>185.5837770312069</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>104.5721495832593</v>
+        <v>46.51038636295238</v>
       </c>
       <c r="S32" t="n">
-        <v>92.26206454866779</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.1724560503182</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0355274371477</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,25 +3110,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>101.5385230193856</v>
       </c>
       <c r="G33" t="n">
-        <v>147.9753801635659</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>118.3064371605275</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>80.8791522657921</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>86.96041768653853</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>177.3027871211308</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3167,16 +3167,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>156.9042254561971</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>151.6418619656843</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>224.1993386963352</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>72.6251735200596</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3268,16 +3268,16 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C35" t="n">
-        <v>350.2054973811788</v>
+        <v>143.0757273994276</v>
       </c>
       <c r="D35" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>104.5721495832593</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>124.3145400842948</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="36">
@@ -3344,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>19.54806479835378</v>
+        <v>50.24735239989008</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3395,19 +3395,19 @@
         <v>86.96041768653853</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>177.3027871211308</v>
       </c>
       <c r="T36" t="n">
-        <v>211.8704098253805</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1774626343188</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -3468,16 +3468,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.21608981087481</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>75.81840064391614</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.0061115724788</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>223.6084224055201</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>15.5741931954695</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E38" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>417.4004972688733</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>185.5837770312069</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>104.5721495832593</v>
+        <v>26.70704120113706</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3593,13 +3593,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>33.61772698497681</v>
       </c>
       <c r="G39" t="n">
-        <v>112.9336855081703</v>
+        <v>147.9753801635659</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>118.3064371605275</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>177.3027871211308</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3673312444226</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>75.81840064391602</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.0061115724788</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>163.4595996697683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>371.4789120616362</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>145.6840557156244</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="42">
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>112.9336855081699</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>25.42097509816571</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>86.96041768653852</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>177.3027871211308</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>128.7686291117168</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>168.0558831046783</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>74.90505680815257</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D44" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>417.4004972688733</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>132.5796805176799</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>16.34848540230048</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>104.5721495832593</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>194.7559596865454</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4055,19 +4055,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4106,19 +4106,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>77.81377008045476</v>
       </c>
       <c r="T45" t="n">
-        <v>130.4638639642769</v>
+        <v>211.8704098253805</v>
       </c>
       <c r="U45" t="n">
         <v>237.1774626343188</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>151.6418619656844</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6213810509761</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>8.203131165419027</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4309,10 +4309,10 @@
         <v>6.590454258427762</v>
       </c>
       <c r="C2" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="D2" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="E2" t="n">
         <v>6.719070557086891</v>
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="F3" t="n">
         <v>0.2559399712010781</v>
@@ -4412,16 +4412,16 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="K3" t="n">
+        <v>0.2559399712010781</v>
+      </c>
+      <c r="L3" t="n">
         <v>3.42319711481442</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>6.590454258427762</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>9.757711402041103</v>
-      </c>
-      <c r="N3" t="n">
-        <v>12.79699856005391</v>
       </c>
       <c r="O3" t="n">
         <v>12.79699856005391</v>
@@ -4436,25 +4436,25 @@
         <v>6.333867974168094</v>
       </c>
       <c r="S3" t="n">
-        <v>3.102302681225188</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="T3" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="U3" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="V3" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
     </row>
     <row r="4">
@@ -4573,34 +4573,34 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="L5" t="n">
-        <v>0.384556269860207</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="M5" t="n">
-        <v>3.551813413473549</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="N5" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="O5" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="P5" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="R5" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="S5" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="T5" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="U5" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="V5" t="n">
         <v>6.719070557086891</v>
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="F6" t="n">
         <v>0.2559399712010781</v>
@@ -4652,16 +4652,16 @@
         <v>3.42319711481442</v>
       </c>
       <c r="L6" t="n">
-        <v>6.590454258427762</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="M6" t="n">
+        <v>3.42319711481442</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.462484272827225</v>
+      </c>
+      <c r="O6" t="n">
         <v>9.629741416440567</v>
-      </c>
-      <c r="N6" t="n">
-        <v>9.629741416440567</v>
-      </c>
-      <c r="O6" t="n">
-        <v>12.79699856005391</v>
       </c>
       <c r="P6" t="n">
         <v>12.79699856005391</v>
@@ -4670,28 +4670,28 @@
         <v>12.79699856005391</v>
       </c>
       <c r="R6" t="n">
-        <v>9.565433267111001</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="S6" t="n">
-        <v>6.333867974168094</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="T6" t="n">
-        <v>3.102302681225188</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2559399712010781</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.950635850029798</v>
       </c>
     </row>
     <row r="7">
@@ -4798,16 +4798,16 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2559399712010781</v>
+        <v>0.384556269860207</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2559399712010781</v>
+        <v>0.384556269860207</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2559399712010781</v>
+        <v>0.384556269860207</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2559399712010781</v>
+        <v>0.384556269860207</v>
       </c>
       <c r="L8" t="n">
         <v>0.384556269860207</v>
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="J9" t="n">
         <v>0.2559399712010781</v>
@@ -4889,13 +4889,13 @@
         <v>3.42319711481442</v>
       </c>
       <c r="L9" t="n">
-        <v>6.590454258427762</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="M9" t="n">
-        <v>9.629741416440567</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="N9" t="n">
-        <v>9.629741416440567</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="O9" t="n">
         <v>9.629741416440567</v>
@@ -4904,31 +4904,31 @@
         <v>12.79699856005391</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.565433267111001</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="R9" t="n">
-        <v>6.333867974168094</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="S9" t="n">
-        <v>3.102302681225188</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="U9" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="V9" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.950635850029798</v>
       </c>
     </row>
     <row r="10">
@@ -5041,52 +5041,52 @@
         <v>34.26985155906885</v>
       </c>
       <c r="J11" t="n">
-        <v>79.05676692452948</v>
+        <v>79.05676692452968</v>
       </c>
       <c r="K11" t="n">
-        <v>253.4458088364304</v>
+        <v>253.4458088364306</v>
       </c>
       <c r="L11" t="n">
-        <v>524.773898292169</v>
+        <v>524.7738982921691</v>
       </c>
       <c r="M11" t="n">
-        <v>855.5546368220778</v>
+        <v>855.554636822078</v>
       </c>
       <c r="N11" t="n">
-        <v>1184.845317505021</v>
+        <v>1184.845317505022</v>
       </c>
       <c r="O11" t="n">
         <v>1458.875810941763</v>
       </c>
       <c r="P11" t="n">
-        <v>1648.606924555083</v>
+        <v>1648.606924555084</v>
       </c>
       <c r="Q11" t="n">
         <v>1713.492577953443</v>
       </c>
       <c r="R11" t="n">
-        <v>1607.864144030958</v>
+        <v>1607.864144030959</v>
       </c>
       <c r="S11" t="n">
         <v>1411.140952428387</v>
       </c>
       <c r="T11" t="n">
-        <v>1192.784936215945</v>
+        <v>1411.140952428387</v>
       </c>
       <c r="U11" t="n">
-        <v>940.2237973905428</v>
+        <v>1411.140952428387</v>
       </c>
       <c r="V11" t="n">
-        <v>616.1028038459448</v>
+        <v>1087.01995888379</v>
       </c>
       <c r="W11" t="n">
-        <v>616.1028038459448</v>
+        <v>745.710399463823</v>
       </c>
       <c r="X11" t="n">
-        <v>616.1028038459448</v>
+        <v>382.2935163378572</v>
       </c>
       <c r="Y11" t="n">
-        <v>412.1357509306177</v>
+        <v>382.2935163378572</v>
       </c>
     </row>
     <row r="12">
@@ -5096,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>384.109842108861</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="C12" t="n">
-        <v>194.6975678418248</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="D12" t="n">
-        <v>194.6975678418248</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="E12" t="n">
-        <v>194.6975678418248</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="F12" t="n">
         <v>34.26985155906885</v>
@@ -5120,22 +5120,22 @@
         <v>34.26985155906885</v>
       </c>
       <c r="J12" t="n">
-        <v>54.26751303566514</v>
+        <v>54.26751303566515</v>
       </c>
       <c r="K12" t="n">
         <v>215.2015677608787</v>
       </c>
       <c r="L12" t="n">
-        <v>393.9611699238067</v>
+        <v>497.883807169437</v>
       </c>
       <c r="M12" t="n">
-        <v>768.5926742711963</v>
+        <v>872.5153115168266</v>
       </c>
       <c r="N12" t="n">
-        <v>1171.559449354708</v>
+        <v>1171.559449354709</v>
       </c>
       <c r="O12" t="n">
-        <v>1484.448240246122</v>
+        <v>1484.448240246123</v>
       </c>
       <c r="P12" t="n">
         <v>1713.492577953443</v>
@@ -5153,19 +5153,19 @@
         <v>1232.549532869554</v>
       </c>
       <c r="U12" t="n">
-        <v>992.9763382894338</v>
+        <v>992.976338289434</v>
       </c>
       <c r="V12" t="n">
-        <v>749.8966201930679</v>
+        <v>749.8966201930681</v>
       </c>
       <c r="W12" t="n">
-        <v>562.6456950357961</v>
+        <v>480.4980509233594</v>
       </c>
       <c r="X12" t="n">
-        <v>562.6456950357961</v>
+        <v>260.9900565400558</v>
       </c>
       <c r="Y12" t="n">
-        <v>562.6456950357961</v>
+        <v>35.34936347538343</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>334.0925911715889</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="C13" t="n">
-        <v>334.0925911715889</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="D13" t="n">
-        <v>334.0925911715889</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="E13" t="n">
-        <v>334.0925911715889</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="F13" t="n">
-        <v>334.0925911715889</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="G13" t="n">
-        <v>334.0925911715889</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="H13" t="n">
-        <v>256.5982029775258</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="I13" t="n">
-        <v>109.6696048257205</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="J13" t="n">
         <v>34.26985155906885</v>
       </c>
       <c r="K13" t="n">
-        <v>42.08562864224986</v>
+        <v>42.08562864224987</v>
       </c>
       <c r="L13" t="n">
-        <v>105.174378339236</v>
+        <v>105.1743783392361</v>
       </c>
       <c r="M13" t="n">
         <v>180.2885088486306</v>
       </c>
       <c r="N13" t="n">
-        <v>261.6327294824115</v>
+        <v>261.6327294824116</v>
       </c>
       <c r="O13" t="n">
-        <v>314.7696368270681</v>
+        <v>314.7696368270683</v>
       </c>
       <c r="P13" t="n">
-        <v>334.0925911715889</v>
+        <v>334.0925911715892</v>
       </c>
       <c r="Q13" t="n">
-        <v>334.0925911715889</v>
+        <v>334.0925911715892</v>
       </c>
       <c r="R13" t="n">
-        <v>334.0925911715889</v>
+        <v>334.0925911715892</v>
       </c>
       <c r="S13" t="n">
-        <v>334.0925911715889</v>
+        <v>334.0925911715892</v>
       </c>
       <c r="T13" t="n">
-        <v>334.0925911715889</v>
+        <v>334.0925911715892</v>
       </c>
       <c r="U13" t="n">
-        <v>334.0925911715889</v>
+        <v>42.55584263524969</v>
       </c>
       <c r="V13" t="n">
-        <v>334.0925911715889</v>
+        <v>42.55584263524969</v>
       </c>
       <c r="W13" t="n">
-        <v>334.0925911715889</v>
+        <v>42.55584263524969</v>
       </c>
       <c r="X13" t="n">
-        <v>334.0925911715889</v>
+        <v>42.55584263524969</v>
       </c>
       <c r="Y13" t="n">
-        <v>334.0925911715889</v>
+        <v>42.55584263524969</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>729.1967778453377</v>
+        <v>795.5008861634767</v>
       </c>
       <c r="C14" t="n">
-        <v>375.4538511976823</v>
+        <v>795.5008861634767</v>
       </c>
       <c r="D14" t="n">
-        <v>34.26985155906885</v>
+        <v>795.5008861634767</v>
       </c>
       <c r="E14" t="n">
-        <v>34.26985155906885</v>
+        <v>420.2696618587937</v>
       </c>
       <c r="F14" t="n">
-        <v>34.26985155906885</v>
+        <v>420.2696618587937</v>
       </c>
       <c r="G14" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="H14" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="I14" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="J14" t="n">
-        <v>79.05676692452948</v>
+        <v>79.0567669245296</v>
       </c>
       <c r="K14" t="n">
-        <v>253.4458088364304</v>
+        <v>253.4458088364306</v>
       </c>
       <c r="L14" t="n">
-        <v>524.773898292169</v>
+        <v>524.7738982921692</v>
       </c>
       <c r="M14" t="n">
-        <v>855.5546368220778</v>
+        <v>855.5546368220781</v>
       </c>
       <c r="N14" t="n">
-        <v>1184.845317505021</v>
+        <v>1184.845317505022</v>
       </c>
       <c r="O14" t="n">
-        <v>1458.875810941762</v>
+        <v>1458.875810941763</v>
       </c>
       <c r="P14" t="n">
-        <v>1648.606924555083</v>
+        <v>1648.606924555084</v>
       </c>
       <c r="Q14" t="n">
-        <v>1713.492577953442</v>
+        <v>1713.492577953443</v>
       </c>
       <c r="R14" t="n">
-        <v>1713.492577953442</v>
+        <v>1713.492577953443</v>
       </c>
       <c r="S14" t="n">
-        <v>1713.492577953442</v>
+        <v>1713.492577953443</v>
       </c>
       <c r="T14" t="n">
-        <v>1713.492577953442</v>
+        <v>1713.492577953443</v>
       </c>
       <c r="U14" t="n">
-        <v>1713.492577953442</v>
+        <v>1460.931439128041</v>
       </c>
       <c r="V14" t="n">
-        <v>1493.209715013301</v>
+        <v>1136.810445583443</v>
       </c>
       <c r="W14" t="n">
-        <v>1493.209715013301</v>
+        <v>795.5008861634767</v>
       </c>
       <c r="X14" t="n">
-        <v>1493.209715013301</v>
+        <v>795.5008861634767</v>
       </c>
       <c r="Y14" t="n">
-        <v>1107.062677216887</v>
+        <v>795.5008861634767</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>35.34936347538297</v>
+        <v>409.0306205147449</v>
       </c>
       <c r="C15" t="n">
-        <v>35.34936347538297</v>
+        <v>409.0306205147449</v>
       </c>
       <c r="D15" t="n">
-        <v>35.34936347538297</v>
+        <v>409.0306205147449</v>
       </c>
       <c r="E15" t="n">
-        <v>35.34936347538297</v>
+        <v>235.4674166361594</v>
       </c>
       <c r="F15" t="n">
-        <v>35.34936347538297</v>
+        <v>235.4674166361594</v>
       </c>
       <c r="G15" t="n">
-        <v>34.26985155906885</v>
+        <v>235.4674166361594</v>
       </c>
       <c r="H15" t="n">
-        <v>34.26985155906885</v>
+        <v>115.9659649588588</v>
       </c>
       <c r="I15" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="J15" t="n">
-        <v>54.26751303566513</v>
+        <v>54.26751303566517</v>
       </c>
       <c r="K15" t="n">
         <v>215.2015677608787</v>
       </c>
       <c r="L15" t="n">
-        <v>497.8838071694369</v>
+        <v>497.883807169437</v>
       </c>
       <c r="M15" t="n">
-        <v>872.5153115168265</v>
+        <v>872.5153115168266</v>
       </c>
       <c r="N15" t="n">
-        <v>1275.482086600339</v>
+        <v>1081.151310206852</v>
       </c>
       <c r="O15" t="n">
-        <v>1588.370877491753</v>
+        <v>1394.040101098266</v>
       </c>
       <c r="P15" t="n">
         <v>1623.084438805586</v>
       </c>
       <c r="Q15" t="n">
-        <v>1713.492577953442</v>
+        <v>1713.492577953443</v>
       </c>
       <c r="R15" t="n">
-        <v>1625.653772209464</v>
+        <v>1713.492577953443</v>
       </c>
       <c r="S15" t="n">
-        <v>1446.560047844685</v>
+        <v>1534.398853588664</v>
       </c>
       <c r="T15" t="n">
-        <v>1232.549532869554</v>
+        <v>1336.832220639207</v>
       </c>
       <c r="U15" t="n">
-        <v>992.9763382894336</v>
+        <v>1097.259026059087</v>
       </c>
       <c r="V15" t="n">
-        <v>749.8966201930676</v>
+        <v>854.1793079627209</v>
       </c>
       <c r="W15" t="n">
-        <v>480.498050923359</v>
+        <v>854.1793079627209</v>
       </c>
       <c r="X15" t="n">
-        <v>260.9900565400553</v>
+        <v>634.6713135794173</v>
       </c>
       <c r="Y15" t="n">
-        <v>35.34936347538297</v>
+        <v>409.0306205147449</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>334.0925911715889</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="C16" t="n">
-        <v>334.0925911715889</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="D16" t="n">
-        <v>334.0925911715889</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="E16" t="n">
-        <v>190.9853778259071</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="F16" t="n">
-        <v>190.9853778259071</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="G16" t="n">
-        <v>190.9853778259071</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9853778259071</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="I16" t="n">
-        <v>44.05677967410179</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="J16" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="K16" t="n">
-        <v>42.08562864224985</v>
+        <v>42.08562864224987</v>
       </c>
       <c r="L16" t="n">
-        <v>105.174378339236</v>
+        <v>105.1743783392361</v>
       </c>
       <c r="M16" t="n">
-        <v>180.2885088486306</v>
+        <v>180.2885088486307</v>
       </c>
       <c r="N16" t="n">
-        <v>261.6327294824115</v>
+        <v>261.6327294824117</v>
       </c>
       <c r="O16" t="n">
-        <v>314.7696368270681</v>
+        <v>314.7696368270683</v>
       </c>
       <c r="P16" t="n">
-        <v>334.0925911715889</v>
+        <v>334.0925911715892</v>
       </c>
       <c r="Q16" t="n">
-        <v>334.0925911715889</v>
+        <v>334.0925911715892</v>
       </c>
       <c r="R16" t="n">
-        <v>334.0925911715889</v>
+        <v>334.0925911715892</v>
       </c>
       <c r="S16" t="n">
-        <v>334.0925911715889</v>
+        <v>334.0925911715892</v>
       </c>
       <c r="T16" t="n">
-        <v>334.0925911715889</v>
+        <v>334.0925911715892</v>
       </c>
       <c r="U16" t="n">
-        <v>334.0925911715889</v>
+        <v>334.0925911715892</v>
       </c>
       <c r="V16" t="n">
-        <v>334.0925911715889</v>
+        <v>334.0925911715892</v>
       </c>
       <c r="W16" t="n">
-        <v>334.0925911715889</v>
+        <v>334.0925911715892</v>
       </c>
       <c r="X16" t="n">
-        <v>334.0925911715889</v>
+        <v>109.9315251026574</v>
       </c>
       <c r="Y16" t="n">
-        <v>334.0925911715889</v>
+        <v>109.9315251026574</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>750.6850755023653</v>
+        <v>1238.389709105052</v>
       </c>
       <c r="C17" t="n">
-        <v>750.6850755023653</v>
+        <v>1238.389709105052</v>
       </c>
       <c r="D17" t="n">
-        <v>409.5010758637519</v>
+        <v>1238.389709105052</v>
       </c>
       <c r="E17" t="n">
-        <v>34.26985155906885</v>
+        <v>863.1584848003688</v>
       </c>
       <c r="F17" t="n">
-        <v>34.26985155906885</v>
+        <v>455.8865154670218</v>
       </c>
       <c r="G17" t="n">
         <v>34.26985155906885</v>
@@ -5515,16 +5515,16 @@
         <v>34.26985155906885</v>
       </c>
       <c r="J17" t="n">
-        <v>79.05676692452965</v>
+        <v>79.0567669245296</v>
       </c>
       <c r="K17" t="n">
         <v>253.4458088364305</v>
       </c>
       <c r="L17" t="n">
-        <v>524.7738982921692</v>
+        <v>524.7738982921691</v>
       </c>
       <c r="M17" t="n">
-        <v>855.5546368220779</v>
+        <v>855.554636822078</v>
       </c>
       <c r="N17" t="n">
         <v>1184.845317505021</v>
@@ -5533,7 +5533,7 @@
         <v>1458.875810941763</v>
       </c>
       <c r="P17" t="n">
-        <v>1648.606924555083</v>
+        <v>1648.606924555084</v>
       </c>
       <c r="Q17" t="n">
         <v>1713.492577953443</v>
@@ -5551,16 +5551,16 @@
         <v>1713.492577953443</v>
       </c>
       <c r="V17" t="n">
-        <v>1478.141672718746</v>
+        <v>1713.492577953443</v>
       </c>
       <c r="W17" t="n">
-        <v>1136.832113298779</v>
+        <v>1713.492577953443</v>
       </c>
       <c r="X17" t="n">
-        <v>1136.832113298779</v>
+        <v>1713.492577953443</v>
       </c>
       <c r="Y17" t="n">
-        <v>750.6850755023653</v>
+        <v>1616.255608476601</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1069.120808276804</v>
+        <v>723.4148516899907</v>
       </c>
       <c r="C18" t="n">
-        <v>879.708534009768</v>
+        <v>534.0025774229543</v>
       </c>
       <c r="D18" t="n">
-        <v>718.9284177707997</v>
+        <v>373.2224611839861</v>
       </c>
       <c r="E18" t="n">
-        <v>545.3652138922141</v>
+        <v>199.6592573054005</v>
       </c>
       <c r="F18" t="n">
-        <v>384.9374976094582</v>
+        <v>39.23154102264462</v>
       </c>
       <c r="G18" t="n">
-        <v>235.4674166361594</v>
+        <v>39.23154102264462</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9659649588589</v>
+        <v>39.23154102264462</v>
       </c>
       <c r="I18" t="n">
         <v>34.26985155906885</v>
       </c>
       <c r="J18" t="n">
-        <v>54.26751303566514</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="K18" t="n">
-        <v>111.2789305152485</v>
+        <v>111.2789305152487</v>
       </c>
       <c r="L18" t="n">
-        <v>393.9611699238067</v>
+        <v>393.9611699238069</v>
       </c>
       <c r="M18" t="n">
-        <v>768.5926742711963</v>
+        <v>768.5926742711965</v>
       </c>
       <c r="N18" t="n">
-        <v>1171.559449354708</v>
+        <v>1171.559449354709</v>
       </c>
       <c r="O18" t="n">
-        <v>1484.448240246122</v>
+        <v>1484.448240246123</v>
       </c>
       <c r="P18" t="n">
         <v>1713.492577953443</v>
@@ -5618,28 +5618,28 @@
         <v>1713.492577953443</v>
       </c>
       <c r="R18" t="n">
-        <v>1713.492577953443</v>
+        <v>1625.653772209464</v>
       </c>
       <c r="S18" t="n">
-        <v>1534.398853588664</v>
+        <v>1625.653772209464</v>
       </c>
       <c r="T18" t="n">
-        <v>1534.398853588664</v>
+        <v>1411.643257234333</v>
       </c>
       <c r="U18" t="n">
-        <v>1534.398853588664</v>
+        <v>1411.643257234333</v>
       </c>
       <c r="V18" t="n">
-        <v>1534.398853588664</v>
+        <v>1168.563539137967</v>
       </c>
       <c r="W18" t="n">
-        <v>1534.398853588664</v>
+        <v>1168.563539137967</v>
       </c>
       <c r="X18" t="n">
-        <v>1473.297354268412</v>
+        <v>949.0555447546631</v>
       </c>
       <c r="Y18" t="n">
-        <v>1247.656661203739</v>
+        <v>723.4148516899907</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>42.55584263524946</v>
+        <v>195.9776526576325</v>
       </c>
       <c r="C19" t="n">
-        <v>42.55584263524946</v>
+        <v>195.9776526576325</v>
       </c>
       <c r="D19" t="n">
-        <v>42.55584263524946</v>
+        <v>195.9776526576325</v>
       </c>
       <c r="E19" t="n">
-        <v>42.55584263524946</v>
+        <v>195.9776526576325</v>
       </c>
       <c r="F19" t="n">
-        <v>42.55584263524946</v>
+        <v>195.9776526576325</v>
       </c>
       <c r="G19" t="n">
-        <v>42.55584263524946</v>
+        <v>195.9776526576325</v>
       </c>
       <c r="H19" t="n">
-        <v>42.55584263524946</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="I19" t="n">
-        <v>42.55584263524946</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="J19" t="n">
         <v>34.26985155906885</v>
       </c>
       <c r="K19" t="n">
-        <v>42.08562864224986</v>
+        <v>42.08562864224987</v>
       </c>
       <c r="L19" t="n">
-        <v>105.174378339236</v>
+        <v>105.1743783392361</v>
       </c>
       <c r="M19" t="n">
         <v>180.2885088486306</v>
       </c>
       <c r="N19" t="n">
-        <v>261.6327294824115</v>
+        <v>261.6327294824116</v>
       </c>
       <c r="O19" t="n">
-        <v>314.7696368270681</v>
+        <v>314.7696368270683</v>
       </c>
       <c r="P19" t="n">
-        <v>334.0925911715889</v>
+        <v>334.0925911715892</v>
       </c>
       <c r="Q19" t="n">
-        <v>334.0925911715889</v>
+        <v>334.0925911715892</v>
       </c>
       <c r="R19" t="n">
-        <v>334.0925911715889</v>
+        <v>334.0925911715892</v>
       </c>
       <c r="S19" t="n">
-        <v>334.0925911715889</v>
+        <v>334.0925911715892</v>
       </c>
       <c r="T19" t="n">
-        <v>334.0925911715889</v>
+        <v>334.0925911715892</v>
       </c>
       <c r="U19" t="n">
-        <v>42.55584263524946</v>
+        <v>334.0925911715892</v>
       </c>
       <c r="V19" t="n">
-        <v>42.55584263524946</v>
+        <v>334.0925911715892</v>
       </c>
       <c r="W19" t="n">
-        <v>42.55584263524946</v>
+        <v>334.0925911715892</v>
       </c>
       <c r="X19" t="n">
-        <v>42.55584263524946</v>
+        <v>334.0925911715892</v>
       </c>
       <c r="Y19" t="n">
-        <v>42.55584263524946</v>
+        <v>334.0925911715892</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>729.1967778453377</v>
+        <v>455.8865154670218</v>
       </c>
       <c r="C20" t="n">
-        <v>375.4538511976823</v>
+        <v>455.8865154670218</v>
       </c>
       <c r="D20" t="n">
-        <v>34.26985155906885</v>
+        <v>455.8865154670218</v>
       </c>
       <c r="E20" t="n">
-        <v>34.26985155906885</v>
+        <v>455.8865154670218</v>
       </c>
       <c r="F20" t="n">
-        <v>34.26985155906885</v>
+        <v>455.8865154670218</v>
       </c>
       <c r="G20" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="H20" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="I20" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="J20" t="n">
-        <v>79.05676692452965</v>
+        <v>79.05676692452971</v>
       </c>
       <c r="K20" t="n">
-        <v>253.4458088364305</v>
+        <v>253.4458088364308</v>
       </c>
       <c r="L20" t="n">
-        <v>524.773898292169</v>
+        <v>524.7738982921694</v>
       </c>
       <c r="M20" t="n">
-        <v>855.5546368220779</v>
+        <v>855.5546368220782</v>
       </c>
       <c r="N20" t="n">
-        <v>1184.845317505021</v>
+        <v>1184.845317505022</v>
       </c>
       <c r="O20" t="n">
         <v>1458.875810941763</v>
       </c>
       <c r="P20" t="n">
-        <v>1648.606924555083</v>
+        <v>1648.606924555084</v>
       </c>
       <c r="Q20" t="n">
         <v>1713.492577953443</v>
       </c>
       <c r="R20" t="n">
-        <v>1607.864144030958</v>
+        <v>1681.457143160123</v>
       </c>
       <c r="S20" t="n">
-        <v>1493.209715013301</v>
+        <v>1484.733951557552</v>
       </c>
       <c r="T20" t="n">
-        <v>1493.209715013301</v>
+        <v>1484.733951557552</v>
       </c>
       <c r="U20" t="n">
-        <v>1493.209715013301</v>
+        <v>1484.733951557552</v>
       </c>
       <c r="V20" t="n">
-        <v>1493.209715013301</v>
+        <v>1160.612958012954</v>
       </c>
       <c r="W20" t="n">
-        <v>1493.209715013301</v>
+        <v>819.3033985929876</v>
       </c>
       <c r="X20" t="n">
-        <v>1493.209715013301</v>
+        <v>455.8865154670218</v>
       </c>
       <c r="Y20" t="n">
-        <v>1107.062677216887</v>
+        <v>455.8865154670218</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>195.0499677980371</v>
+        <v>223.6821258261051</v>
       </c>
       <c r="C21" t="n">
-        <v>195.0499677980371</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="D21" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="E21" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="F21" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="G21" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="H21" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="I21" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="J21" t="n">
-        <v>54.26751303566514</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="K21" t="n">
-        <v>215.2015677608787</v>
+        <v>195.2039062842824</v>
       </c>
       <c r="L21" t="n">
-        <v>497.8838071694369</v>
+        <v>477.8861456928406</v>
       </c>
       <c r="M21" t="n">
-        <v>678.1845351233396</v>
+        <v>852.5176500402301</v>
       </c>
       <c r="N21" t="n">
-        <v>1081.151310206852</v>
+        <v>1171.559449354709</v>
       </c>
       <c r="O21" t="n">
-        <v>1394.040101098266</v>
+        <v>1484.448240246123</v>
       </c>
       <c r="P21" t="n">
-        <v>1623.084438805586</v>
+        <v>1713.492577953443</v>
       </c>
       <c r="Q21" t="n">
         <v>1713.492577953443</v>
       </c>
       <c r="R21" t="n">
-        <v>1625.653772209464</v>
+        <v>1625.653772209465</v>
       </c>
       <c r="S21" t="n">
         <v>1446.560047844686</v>
       </c>
       <c r="T21" t="n">
-        <v>1232.549532869554</v>
+        <v>1446.560047844686</v>
       </c>
       <c r="U21" t="n">
-        <v>992.9763382894338</v>
+        <v>1206.986853264566</v>
       </c>
       <c r="V21" t="n">
-        <v>749.8966201930679</v>
+        <v>963.9071351682001</v>
       </c>
       <c r="W21" t="n">
-        <v>480.4980509233592</v>
+        <v>694.5085658984914</v>
       </c>
       <c r="X21" t="n">
-        <v>260.9900565400555</v>
+        <v>475.0005715151877</v>
       </c>
       <c r="Y21" t="n">
-        <v>195.0499677980371</v>
+        <v>249.3598784505154</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>334.0925911715889</v>
+        <v>40.84945269751296</v>
       </c>
       <c r="C22" t="n">
-        <v>334.0925911715889</v>
+        <v>40.84945269751296</v>
       </c>
       <c r="D22" t="n">
-        <v>334.0925911715889</v>
+        <v>40.84945269751296</v>
       </c>
       <c r="E22" t="n">
-        <v>334.0925911715889</v>
+        <v>40.84945269751296</v>
       </c>
       <c r="F22" t="n">
-        <v>193.7624071125519</v>
+        <v>40.84945269751296</v>
       </c>
       <c r="G22" t="n">
-        <v>34.26985155906885</v>
+        <v>40.84945269751296</v>
       </c>
       <c r="H22" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="I22" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="J22" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="K22" t="n">
-        <v>42.08562864224986</v>
+        <v>42.08562864224987</v>
       </c>
       <c r="L22" t="n">
         <v>105.174378339236</v>
@@ -5925,37 +5925,37 @@
         <v>261.6327294824115</v>
       </c>
       <c r="O22" t="n">
-        <v>314.7696368270681</v>
+        <v>314.7696368270682</v>
       </c>
       <c r="P22" t="n">
-        <v>334.0925911715889</v>
+        <v>334.092591171589</v>
       </c>
       <c r="Q22" t="n">
-        <v>334.0925911715889</v>
+        <v>334.092591171589</v>
       </c>
       <c r="R22" t="n">
-        <v>334.0925911715889</v>
+        <v>334.092591171589</v>
       </c>
       <c r="S22" t="n">
-        <v>334.0925911715889</v>
+        <v>334.092591171589</v>
       </c>
       <c r="T22" t="n">
-        <v>334.0925911715889</v>
+        <v>334.092591171589</v>
       </c>
       <c r="U22" t="n">
-        <v>334.0925911715889</v>
+        <v>334.092591171589</v>
       </c>
       <c r="V22" t="n">
-        <v>334.0925911715889</v>
+        <v>334.092591171589</v>
       </c>
       <c r="W22" t="n">
-        <v>334.0925911715889</v>
+        <v>40.84945269751296</v>
       </c>
       <c r="X22" t="n">
-        <v>334.0925911715889</v>
+        <v>40.84945269751296</v>
       </c>
       <c r="Y22" t="n">
-        <v>334.0925911715889</v>
+        <v>40.84945269751296</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34.26985155906885</v>
+        <v>949.4796407854798</v>
       </c>
       <c r="C23" t="n">
-        <v>34.26985155906885</v>
+        <v>949.4796407854798</v>
       </c>
       <c r="D23" t="n">
-        <v>34.26985155906885</v>
+        <v>949.4796407854798</v>
       </c>
       <c r="E23" t="n">
-        <v>34.26985155906885</v>
+        <v>574.2484164807968</v>
       </c>
       <c r="F23" t="n">
-        <v>34.26985155906885</v>
+        <v>455.8865154670218</v>
       </c>
       <c r="G23" t="n">
         <v>34.26985155906885</v>
@@ -5986,16 +5986,16 @@
         <v>34.26985155906885</v>
       </c>
       <c r="I23" t="n">
-        <v>34.26985155906866</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="J23" t="n">
-        <v>79.05676692452943</v>
+        <v>79.05676692452965</v>
       </c>
       <c r="K23" t="n">
-        <v>253.4458088364303</v>
+        <v>253.4458088364305</v>
       </c>
       <c r="L23" t="n">
-        <v>524.7738982921688</v>
+        <v>524.773898292169</v>
       </c>
       <c r="M23" t="n">
         <v>855.5546368220778</v>
@@ -6016,25 +6016,25 @@
         <v>1713.492577953443</v>
       </c>
       <c r="S23" t="n">
-        <v>1534.034442687444</v>
+        <v>1713.492577953443</v>
       </c>
       <c r="T23" t="n">
-        <v>1315.678426475001</v>
+        <v>1713.492577953443</v>
       </c>
       <c r="U23" t="n">
-        <v>1063.117287649599</v>
+        <v>1713.492577953443</v>
       </c>
       <c r="V23" t="n">
-        <v>738.9962941050012</v>
+        <v>1713.492577953443</v>
       </c>
       <c r="W23" t="n">
-        <v>397.6867346850347</v>
+        <v>1713.492577953443</v>
       </c>
       <c r="X23" t="n">
-        <v>34.26985155906885</v>
+        <v>1713.492577953443</v>
       </c>
       <c r="Y23" t="n">
-        <v>34.26985155906885</v>
+        <v>1327.345540157029</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1069.120808276804</v>
+        <v>639.7215593434489</v>
       </c>
       <c r="C24" t="n">
-        <v>879.708534009768</v>
+        <v>450.3092850764126</v>
       </c>
       <c r="D24" t="n">
-        <v>718.9284177707997</v>
+        <v>289.5291688374444</v>
       </c>
       <c r="E24" t="n">
-        <v>545.3652138922141</v>
+        <v>115.9659649588589</v>
       </c>
       <c r="F24" t="n">
-        <v>384.9374976094582</v>
+        <v>115.9659649588589</v>
       </c>
       <c r="G24" t="n">
-        <v>235.4674166361594</v>
+        <v>115.9659649588589</v>
       </c>
       <c r="H24" t="n">
         <v>115.9659649588589</v>
@@ -6068,52 +6068,52 @@
         <v>34.26985155906885</v>
       </c>
       <c r="J24" t="n">
-        <v>54.26751303566514</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="K24" t="n">
-        <v>215.2015677608787</v>
+        <v>195.2039062842824</v>
       </c>
       <c r="L24" t="n">
-        <v>497.8838071694369</v>
+        <v>477.8861456928406</v>
       </c>
       <c r="M24" t="n">
-        <v>872.5153115168265</v>
+        <v>852.5176500402301</v>
       </c>
       <c r="N24" t="n">
-        <v>1275.482086600339</v>
+        <v>1255.484425123742</v>
       </c>
       <c r="O24" t="n">
-        <v>1588.370877491753</v>
+        <v>1568.373216015156</v>
       </c>
       <c r="P24" t="n">
-        <v>1623.084438805586</v>
+        <v>1713.492577953443</v>
       </c>
       <c r="Q24" t="n">
         <v>1713.492577953443</v>
       </c>
       <c r="R24" t="n">
-        <v>1705.304765713081</v>
+        <v>1656.510339058271</v>
       </c>
       <c r="S24" t="n">
-        <v>1526.211041348302</v>
+        <v>1477.416614693492</v>
       </c>
       <c r="T24" t="n">
-        <v>1312.20052637317</v>
+        <v>1263.40609971836</v>
       </c>
       <c r="U24" t="n">
-        <v>1312.20052637317</v>
+        <v>1263.40609971836</v>
       </c>
       <c r="V24" t="n">
-        <v>1069.120808276804</v>
+        <v>1263.40609971836</v>
       </c>
       <c r="W24" t="n">
-        <v>1069.120808276804</v>
+        <v>1263.40609971836</v>
       </c>
       <c r="X24" t="n">
-        <v>1069.120808276804</v>
+        <v>1043.898105335056</v>
       </c>
       <c r="Y24" t="n">
-        <v>1069.120808276804</v>
+        <v>818.2574122703841</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>114.7579721673784</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="C25" t="n">
-        <v>114.7579721673784</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="D25" t="n">
-        <v>114.7579721673784</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="E25" t="n">
-        <v>114.7579721673784</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="F25" t="n">
         <v>34.26985155906885</v>
@@ -6171,28 +6171,28 @@
         <v>334.0925911715889</v>
       </c>
       <c r="R25" t="n">
-        <v>334.0925911715889</v>
+        <v>325.8066000954083</v>
       </c>
       <c r="S25" t="n">
-        <v>334.0925911715889</v>
+        <v>325.8066000954083</v>
       </c>
       <c r="T25" t="n">
-        <v>334.0925911715889</v>
+        <v>325.8066000954083</v>
       </c>
       <c r="U25" t="n">
-        <v>334.0925911715889</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="V25" t="n">
-        <v>334.0925911715889</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="W25" t="n">
-        <v>334.0925911715889</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="X25" t="n">
-        <v>334.0925911715889</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="Y25" t="n">
-        <v>114.7579721673784</v>
+        <v>34.26985155906885</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>949.4796407854805</v>
+        <v>532.3073915745861</v>
       </c>
       <c r="C26" t="n">
-        <v>595.7367141378251</v>
+        <v>532.3073915745861</v>
       </c>
       <c r="D26" t="n">
-        <v>409.5010758637519</v>
+        <v>532.3073915745861</v>
       </c>
       <c r="E26" t="n">
-        <v>34.26985155906887</v>
+        <v>532.3073915745861</v>
       </c>
       <c r="F26" t="n">
-        <v>34.26985155906887</v>
+        <v>532.3073915745861</v>
       </c>
       <c r="G26" t="n">
-        <v>34.26985155906887</v>
+        <v>110.6907276666332</v>
       </c>
       <c r="H26" t="n">
-        <v>34.26985155906887</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="I26" t="n">
-        <v>34.26985155906887</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="J26" t="n">
-        <v>79.05676692452994</v>
+        <v>79.05676692452965</v>
       </c>
       <c r="K26" t="n">
-        <v>253.4458088364308</v>
+        <v>253.4458088364305</v>
       </c>
       <c r="L26" t="n">
-        <v>524.7738982921694</v>
+        <v>524.773898292169</v>
       </c>
       <c r="M26" t="n">
-        <v>855.5546368220787</v>
+        <v>855.5546368220778</v>
       </c>
       <c r="N26" t="n">
-        <v>1184.845317505022</v>
+        <v>1184.845317505021</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.875810941764</v>
+        <v>1458.875810941763</v>
       </c>
       <c r="P26" t="n">
-        <v>1648.606924555084</v>
+        <v>1648.606924555083</v>
       </c>
       <c r="Q26" t="n">
         <v>1713.492577953443</v>
@@ -6256,22 +6256,22 @@
         <v>1713.492577953443</v>
       </c>
       <c r="T26" t="n">
-        <v>1713.492577953443</v>
+        <v>1495.136561741</v>
       </c>
       <c r="U26" t="n">
-        <v>1713.492577953443</v>
+        <v>1242.575422915598</v>
       </c>
       <c r="V26" t="n">
-        <v>1713.492577953443</v>
+        <v>918.4544293710002</v>
       </c>
       <c r="W26" t="n">
-        <v>1713.492577953443</v>
+        <v>918.4544293710002</v>
       </c>
       <c r="X26" t="n">
-        <v>1713.492577953443</v>
+        <v>918.4544293710002</v>
       </c>
       <c r="Y26" t="n">
-        <v>1327.345540157029</v>
+        <v>532.3073915745861</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>115.9659649588589</v>
+        <v>707.1431269607455</v>
       </c>
       <c r="C27" t="n">
-        <v>115.9659649588589</v>
+        <v>517.7308526937092</v>
       </c>
       <c r="D27" t="n">
-        <v>115.9659649588589</v>
+        <v>517.7308526937092</v>
       </c>
       <c r="E27" t="n">
-        <v>115.9659649588589</v>
+        <v>344.1676488151236</v>
       </c>
       <c r="F27" t="n">
-        <v>115.9659649588589</v>
+        <v>183.7399325323677</v>
       </c>
       <c r="G27" t="n">
-        <v>115.9659649588589</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9659649588589</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="I27" t="n">
-        <v>34.26985155906887</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="J27" t="n">
-        <v>54.26751303566515</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="K27" t="n">
-        <v>54.26751303566515</v>
+        <v>195.2039062842824</v>
       </c>
       <c r="L27" t="n">
-        <v>336.9497524442234</v>
+        <v>477.8861456928406</v>
       </c>
       <c r="M27" t="n">
-        <v>711.581256791613</v>
+        <v>852.5176500402301</v>
       </c>
       <c r="N27" t="n">
-        <v>1114.548031875125</v>
+        <v>1255.484425123742</v>
       </c>
       <c r="O27" t="n">
-        <v>1427.436822766539</v>
+        <v>1484.448240246122</v>
       </c>
       <c r="P27" t="n">
-        <v>1623.084438805587</v>
+        <v>1713.492577953443</v>
       </c>
       <c r="Q27" t="n">
         <v>1713.492577953443</v>
       </c>
       <c r="R27" t="n">
-        <v>1625.653772209465</v>
+        <v>1713.492577953443</v>
       </c>
       <c r="S27" t="n">
-        <v>1446.560047844686</v>
+        <v>1534.398853588664</v>
       </c>
       <c r="T27" t="n">
-        <v>1232.549532869554</v>
+        <v>1320.388338613532</v>
       </c>
       <c r="U27" t="n">
-        <v>992.9763382894345</v>
+        <v>1080.815144033412</v>
       </c>
       <c r="V27" t="n">
-        <v>749.8966201930685</v>
+        <v>1080.815144033412</v>
       </c>
       <c r="W27" t="n">
-        <v>480.4980509233599</v>
+        <v>1080.815144033412</v>
       </c>
       <c r="X27" t="n">
-        <v>260.9900565400562</v>
+        <v>861.3071496501086</v>
       </c>
       <c r="Y27" t="n">
-        <v>115.9659649588589</v>
+        <v>707.1431269607455</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1413.669838340923</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="C28" t="n">
-        <v>1413.669838340923</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="D28" t="n">
-        <v>1413.669838340923</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="E28" t="n">
-        <v>1413.669838340923</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="F28" t="n">
-        <v>1413.669838340923</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="G28" t="n">
-        <v>1413.669838340923</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="H28" t="n">
-        <v>1413.669838340923</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="I28" t="n">
-        <v>1413.669838340923</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="J28" t="n">
-        <v>1413.669838340923</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="K28" t="n">
-        <v>1421.485615424104</v>
+        <v>42.08562864224986</v>
       </c>
       <c r="L28" t="n">
-        <v>1484.57436512109</v>
+        <v>105.174378339236</v>
       </c>
       <c r="M28" t="n">
-        <v>1559.688495630485</v>
+        <v>180.2885088486306</v>
       </c>
       <c r="N28" t="n">
-        <v>1641.032716264266</v>
+        <v>261.6327294824115</v>
       </c>
       <c r="O28" t="n">
-        <v>1694.169623608922</v>
+        <v>314.7696368270681</v>
       </c>
       <c r="P28" t="n">
-        <v>1713.492577953443</v>
+        <v>334.0925911715889</v>
       </c>
       <c r="Q28" t="n">
-        <v>1713.492577953443</v>
+        <v>334.0925911715889</v>
       </c>
       <c r="R28" t="n">
-        <v>1713.492577953443</v>
+        <v>334.0925911715889</v>
       </c>
       <c r="S28" t="n">
-        <v>1713.492577953443</v>
+        <v>334.0925911715889</v>
       </c>
       <c r="T28" t="n">
-        <v>1713.492577953443</v>
+        <v>334.0925911715889</v>
       </c>
       <c r="U28" t="n">
-        <v>1421.955829417104</v>
+        <v>334.0925911715889</v>
       </c>
       <c r="V28" t="n">
-        <v>1413.669838340923</v>
+        <v>334.0925911715889</v>
       </c>
       <c r="W28" t="n">
-        <v>1413.669838340923</v>
+        <v>253.6044705632794</v>
       </c>
       <c r="X28" t="n">
-        <v>1413.669838340923</v>
+        <v>253.6044705632794</v>
       </c>
       <c r="Y28" t="n">
-        <v>1413.669838340923</v>
+        <v>34.26985155906885</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1332.742148620619</v>
+        <v>480.4343237370302</v>
       </c>
       <c r="C29" t="n">
-        <v>978.9992219729633</v>
+        <v>480.4343237370302</v>
       </c>
       <c r="D29" t="n">
-        <v>978.9992219729633</v>
+        <v>480.4343237370302</v>
       </c>
       <c r="E29" t="n">
-        <v>978.9992219729633</v>
+        <v>480.4343237370302</v>
       </c>
       <c r="F29" t="n">
-        <v>978.9992219729633</v>
+        <v>73.16235440368325</v>
       </c>
       <c r="G29" t="n">
-        <v>557.3825580650104</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="H29" t="n">
-        <v>221.7282121966516</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="I29" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="J29" t="n">
         <v>79.05676692452948</v>
@@ -6475,40 +6475,40 @@
         <v>855.5546368220778</v>
       </c>
       <c r="N29" t="n">
-        <v>1184.845317505021</v>
+        <v>1184.845317505022</v>
       </c>
       <c r="O29" t="n">
         <v>1458.875810941763</v>
       </c>
       <c r="P29" t="n">
-        <v>1648.606924555083</v>
+        <v>1648.606924555084</v>
       </c>
       <c r="Q29" t="n">
         <v>1713.492577953443</v>
       </c>
       <c r="R29" t="n">
-        <v>1607.864144030958</v>
+        <v>1607.864144030959</v>
       </c>
       <c r="S29" t="n">
-        <v>1411.140952428387</v>
+        <v>1607.864144030959</v>
       </c>
       <c r="T29" t="n">
-        <v>1332.742148620619</v>
+        <v>1607.864144030959</v>
       </c>
       <c r="U29" t="n">
-        <v>1332.742148620619</v>
+        <v>1607.864144030959</v>
       </c>
       <c r="V29" t="n">
-        <v>1332.742148620619</v>
+        <v>1607.864144030959</v>
       </c>
       <c r="W29" t="n">
-        <v>1332.742148620619</v>
+        <v>1607.864144030959</v>
       </c>
       <c r="X29" t="n">
-        <v>1332.742148620619</v>
+        <v>1244.447260904993</v>
       </c>
       <c r="Y29" t="n">
-        <v>1332.742148620619</v>
+        <v>858.3002231085791</v>
       </c>
     </row>
     <row r="30">
@@ -6518,31 +6518,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>563.3972486970092</v>
+        <v>487.7622233977108</v>
       </c>
       <c r="C30" t="n">
-        <v>563.3972486970092</v>
+        <v>487.7622233977108</v>
       </c>
       <c r="D30" t="n">
-        <v>563.3972486970092</v>
+        <v>487.7622233977108</v>
       </c>
       <c r="E30" t="n">
-        <v>545.3652138922141</v>
+        <v>314.1990195191253</v>
       </c>
       <c r="F30" t="n">
-        <v>384.9374976094582</v>
+        <v>153.7713032363694</v>
       </c>
       <c r="G30" t="n">
-        <v>235.4674166361594</v>
+        <v>153.7713032363694</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9659649588589</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="I30" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="J30" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="K30" t="n">
         <v>195.2039062842824</v>
@@ -6554,10 +6554,10 @@
         <v>852.5176500402301</v>
       </c>
       <c r="N30" t="n">
-        <v>1255.484425123742</v>
+        <v>1171.559449354709</v>
       </c>
       <c r="O30" t="n">
-        <v>1568.373216015156</v>
+        <v>1484.448240246123</v>
       </c>
       <c r="P30" t="n">
         <v>1713.492577953443</v>
@@ -6566,28 +6566,28 @@
         <v>1713.492577953443</v>
       </c>
       <c r="R30" t="n">
-        <v>1713.492577953443</v>
+        <v>1673.332214702341</v>
       </c>
       <c r="S30" t="n">
-        <v>1713.492577953443</v>
+        <v>1673.332214702341</v>
       </c>
       <c r="T30" t="n">
-        <v>1713.492577953443</v>
+        <v>1459.321699727209</v>
       </c>
       <c r="U30" t="n">
-        <v>1473.919383373322</v>
+        <v>1219.748505147089</v>
       </c>
       <c r="V30" t="n">
-        <v>1230.839665276957</v>
+        <v>976.6687870507232</v>
       </c>
       <c r="W30" t="n">
-        <v>961.4410960072479</v>
+        <v>707.2702177810145</v>
       </c>
       <c r="X30" t="n">
-        <v>741.9331016239443</v>
+        <v>487.7622233977108</v>
       </c>
       <c r="Y30" t="n">
-        <v>741.9331016239443</v>
+        <v>487.7622233977108</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>110.8540946337315</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="C31" t="n">
-        <v>110.8540946337315</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="D31" t="n">
-        <v>110.8540946337315</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="E31" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="F31" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="G31" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="H31" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="I31" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="J31" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="K31" t="n">
-        <v>42.08562864224986</v>
+        <v>42.08562864224987</v>
       </c>
       <c r="L31" t="n">
         <v>105.174378339236</v>
@@ -6636,37 +6636,37 @@
         <v>261.6327294824115</v>
       </c>
       <c r="O31" t="n">
-        <v>314.7696368270681</v>
+        <v>314.7696368270682</v>
       </c>
       <c r="P31" t="n">
-        <v>334.0925911715889</v>
+        <v>334.092591171589</v>
       </c>
       <c r="Q31" t="n">
-        <v>334.0925911715889</v>
+        <v>334.092591171589</v>
       </c>
       <c r="R31" t="n">
-        <v>334.0925911715889</v>
+        <v>334.092591171589</v>
       </c>
       <c r="S31" t="n">
-        <v>334.0925911715889</v>
+        <v>334.092591171589</v>
       </c>
       <c r="T31" t="n">
-        <v>110.8540946337315</v>
+        <v>334.092591171589</v>
       </c>
       <c r="U31" t="n">
-        <v>110.8540946337315</v>
+        <v>334.092591171589</v>
       </c>
       <c r="V31" t="n">
-        <v>110.8540946337315</v>
+        <v>327.5129900331449</v>
       </c>
       <c r="W31" t="n">
-        <v>110.8540946337315</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="X31" t="n">
-        <v>110.8540946337315</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="Y31" t="n">
-        <v>110.8540946337315</v>
+        <v>34.26985155906886</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>557.3825580650104</v>
+        <v>782.7258205310293</v>
       </c>
       <c r="C32" t="n">
-        <v>557.3825580650104</v>
+        <v>782.7258205310293</v>
       </c>
       <c r="D32" t="n">
-        <v>557.3825580650104</v>
+        <v>441.5418208924158</v>
       </c>
       <c r="E32" t="n">
-        <v>557.3825580650104</v>
+        <v>441.5418208924158</v>
       </c>
       <c r="F32" t="n">
-        <v>557.3825580650104</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="G32" t="n">
-        <v>557.3825580650104</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="H32" t="n">
-        <v>221.7282121966516</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="I32" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="J32" t="n">
-        <v>79.05676692452948</v>
+        <v>79.05676692452971</v>
       </c>
       <c r="K32" t="n">
-        <v>253.4458088364304</v>
+        <v>253.4458088364308</v>
       </c>
       <c r="L32" t="n">
-        <v>524.773898292169</v>
+        <v>524.7738982921696</v>
       </c>
       <c r="M32" t="n">
-        <v>855.5546368220778</v>
+        <v>855.5546368220782</v>
       </c>
       <c r="N32" t="n">
-        <v>1184.845317505021</v>
+        <v>1184.845317505022</v>
       </c>
       <c r="O32" t="n">
         <v>1458.875810941763</v>
       </c>
       <c r="P32" t="n">
-        <v>1648.606924555083</v>
+        <v>1648.606924555084</v>
       </c>
       <c r="Q32" t="n">
         <v>1713.492577953443</v>
       </c>
       <c r="R32" t="n">
-        <v>1607.864144030958</v>
+        <v>1666.512389708037</v>
       </c>
       <c r="S32" t="n">
-        <v>1514.670139436344</v>
+        <v>1666.512389708037</v>
       </c>
       <c r="T32" t="n">
-        <v>1514.670139436344</v>
+        <v>1448.156373495594</v>
       </c>
       <c r="U32" t="n">
-        <v>1262.109000610943</v>
+        <v>1448.156373495594</v>
       </c>
       <c r="V32" t="n">
-        <v>1262.109000610943</v>
+        <v>1124.035379950996</v>
       </c>
       <c r="W32" t="n">
-        <v>920.7994411909762</v>
+        <v>782.7258205310293</v>
       </c>
       <c r="X32" t="n">
-        <v>557.3825580650104</v>
+        <v>782.7258205310293</v>
       </c>
       <c r="Y32" t="n">
-        <v>557.3825580650104</v>
+        <v>782.7258205310293</v>
       </c>
     </row>
     <row r="33">
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1069.120808276804</v>
+        <v>310.3972201037004</v>
       </c>
       <c r="C33" t="n">
-        <v>879.708534009768</v>
+        <v>310.3972201037004</v>
       </c>
       <c r="D33" t="n">
-        <v>718.9284177707997</v>
+        <v>310.3972201037004</v>
       </c>
       <c r="E33" t="n">
-        <v>545.3652138922141</v>
+        <v>136.8340162251149</v>
       </c>
       <c r="F33" t="n">
-        <v>384.9374976094582</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="G33" t="n">
-        <v>235.4674166361594</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9659649588589</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="I33" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="J33" t="n">
-        <v>54.26751303566514</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="K33" t="n">
-        <v>215.2015677608787</v>
+        <v>111.2789305152489</v>
       </c>
       <c r="L33" t="n">
-        <v>497.8838071694369</v>
+        <v>393.9611699238072</v>
       </c>
       <c r="M33" t="n">
-        <v>872.5153115168265</v>
+        <v>768.5926742711968</v>
       </c>
       <c r="N33" t="n">
-        <v>1275.482086600339</v>
+        <v>1171.559449354709</v>
       </c>
       <c r="O33" t="n">
-        <v>1588.370877491753</v>
+        <v>1484.448240246123</v>
       </c>
       <c r="P33" t="n">
         <v>1713.492577953443</v>
@@ -6803,28 +6803,28 @@
         <v>1713.492577953443</v>
       </c>
       <c r="R33" t="n">
-        <v>1625.653772209464</v>
+        <v>1625.653772209465</v>
       </c>
       <c r="S33" t="n">
-        <v>1625.653772209464</v>
+        <v>1446.560047844686</v>
       </c>
       <c r="T33" t="n">
-        <v>1625.653772209464</v>
+        <v>1446.560047844686</v>
       </c>
       <c r="U33" t="n">
-        <v>1625.653772209464</v>
+        <v>1446.560047844686</v>
       </c>
       <c r="V33" t="n">
-        <v>1625.653772209464</v>
+        <v>1203.48032974832</v>
       </c>
       <c r="W33" t="n">
-        <v>1625.653772209464</v>
+        <v>934.0817604786115</v>
       </c>
       <c r="X33" t="n">
-        <v>1406.145777826161</v>
+        <v>714.5737660953079</v>
       </c>
       <c r="Y33" t="n">
-        <v>1247.656661203739</v>
+        <v>488.9330730306355</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>34.26985155906885</v>
+        <v>334.092591171589</v>
       </c>
       <c r="C34" t="n">
-        <v>34.26985155906885</v>
+        <v>180.9189932264534</v>
       </c>
       <c r="D34" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="E34" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="F34" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="G34" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="H34" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="I34" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="J34" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="K34" t="n">
-        <v>42.08562864224986</v>
+        <v>42.08562864224987</v>
       </c>
       <c r="L34" t="n">
         <v>105.174378339236</v>
@@ -6873,37 +6873,37 @@
         <v>261.6327294824115</v>
       </c>
       <c r="O34" t="n">
-        <v>314.7696368270681</v>
+        <v>314.7696368270682</v>
       </c>
       <c r="P34" t="n">
-        <v>334.0925911715889</v>
+        <v>334.092591171589</v>
       </c>
       <c r="Q34" t="n">
-        <v>334.0925911715889</v>
+        <v>334.092591171589</v>
       </c>
       <c r="R34" t="n">
-        <v>334.0925911715889</v>
+        <v>334.092591171589</v>
       </c>
       <c r="S34" t="n">
-        <v>107.6286126904422</v>
+        <v>334.092591171589</v>
       </c>
       <c r="T34" t="n">
-        <v>107.6286126904422</v>
+        <v>334.092591171589</v>
       </c>
       <c r="U34" t="n">
-        <v>107.6286126904422</v>
+        <v>334.092591171589</v>
       </c>
       <c r="V34" t="n">
-        <v>34.26985155906885</v>
+        <v>334.092591171589</v>
       </c>
       <c r="W34" t="n">
-        <v>34.26985155906885</v>
+        <v>334.092591171589</v>
       </c>
       <c r="X34" t="n">
-        <v>34.26985155906885</v>
+        <v>334.092591171589</v>
       </c>
       <c r="Y34" t="n">
-        <v>34.26985155906885</v>
+        <v>334.092591171589</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1104.428002150021</v>
+        <v>586.0627576595144</v>
       </c>
       <c r="C35" t="n">
-        <v>750.6850755023653</v>
+        <v>441.5418208924158</v>
       </c>
       <c r="D35" t="n">
-        <v>409.5010758637519</v>
+        <v>441.5418208924158</v>
       </c>
       <c r="E35" t="n">
-        <v>34.26985155906885</v>
+        <v>441.5418208924158</v>
       </c>
       <c r="F35" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="G35" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="H35" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="I35" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="J35" t="n">
         <v>79.05676692452965</v>
@@ -6946,43 +6946,43 @@
         <v>524.773898292169</v>
       </c>
       <c r="M35" t="n">
-        <v>855.5546368220778</v>
+        <v>855.5546368220779</v>
       </c>
       <c r="N35" t="n">
-        <v>1184.845317505021</v>
+        <v>1184.845317505022</v>
       </c>
       <c r="O35" t="n">
         <v>1458.875810941763</v>
       </c>
       <c r="P35" t="n">
-        <v>1648.606924555083</v>
+        <v>1648.606924555084</v>
       </c>
       <c r="Q35" t="n">
         <v>1713.492577953443</v>
       </c>
       <c r="R35" t="n">
-        <v>1607.864144030958</v>
+        <v>1713.492577953443</v>
       </c>
       <c r="S35" t="n">
-        <v>1482.29390152157</v>
+        <v>1713.492577953443</v>
       </c>
       <c r="T35" t="n">
-        <v>1482.29390152157</v>
+        <v>1713.492577953443</v>
       </c>
       <c r="U35" t="n">
-        <v>1482.29390152157</v>
+        <v>1713.492577953443</v>
       </c>
       <c r="V35" t="n">
-        <v>1482.29390152157</v>
+        <v>1713.492577953443</v>
       </c>
       <c r="W35" t="n">
-        <v>1482.29390152157</v>
+        <v>1713.492577953443</v>
       </c>
       <c r="X35" t="n">
-        <v>1482.29390152157</v>
+        <v>1350.075694827477</v>
       </c>
       <c r="Y35" t="n">
-        <v>1482.29390152157</v>
+        <v>963.9286570310633</v>
       </c>
     </row>
     <row r="36">
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>214.4430878401619</v>
+        <v>579.795789373409</v>
       </c>
       <c r="C36" t="n">
-        <v>214.4430878401619</v>
+        <v>579.795789373409</v>
       </c>
       <c r="D36" t="n">
-        <v>214.4430878401619</v>
+        <v>419.0156731344407</v>
       </c>
       <c r="E36" t="n">
-        <v>214.4430878401619</v>
+        <v>245.4524692558552</v>
       </c>
       <c r="F36" t="n">
-        <v>54.01537155740601</v>
+        <v>85.02475297309925</v>
       </c>
       <c r="G36" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="H36" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="I36" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="J36" t="n">
-        <v>54.26751303566514</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="K36" t="n">
-        <v>215.2015677608787</v>
+        <v>111.2789305152489</v>
       </c>
       <c r="L36" t="n">
-        <v>497.8838071694369</v>
+        <v>393.9611699238072</v>
       </c>
       <c r="M36" t="n">
-        <v>872.5153115168265</v>
+        <v>768.5926742711968</v>
       </c>
       <c r="N36" t="n">
-        <v>1275.482086600339</v>
+        <v>1171.559449354709</v>
       </c>
       <c r="O36" t="n">
-        <v>1588.370877491753</v>
+        <v>1484.448240246123</v>
       </c>
       <c r="P36" t="n">
         <v>1713.492577953443</v>
@@ -7040,28 +7040,28 @@
         <v>1713.492577953443</v>
       </c>
       <c r="R36" t="n">
-        <v>1625.653772209464</v>
+        <v>1625.653772209465</v>
       </c>
       <c r="S36" t="n">
-        <v>1625.653772209464</v>
+        <v>1446.560047844686</v>
       </c>
       <c r="T36" t="n">
-        <v>1411.643257234332</v>
+        <v>1446.560047844686</v>
       </c>
       <c r="U36" t="n">
-        <v>1172.070062654213</v>
+        <v>1446.560047844686</v>
       </c>
       <c r="V36" t="n">
-        <v>928.9903445578466</v>
+        <v>1203.48032974832</v>
       </c>
       <c r="W36" t="n">
-        <v>659.5917752881379</v>
+        <v>1203.48032974832</v>
       </c>
       <c r="X36" t="n">
-        <v>440.0837809048343</v>
+        <v>983.9723353650165</v>
       </c>
       <c r="Y36" t="n">
-        <v>214.4430878401619</v>
+        <v>758.3316423003441</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="C37" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="D37" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="E37" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="F37" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="G37" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="H37" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="I37" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="J37" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="K37" t="n">
-        <v>42.08562864224986</v>
+        <v>42.08562864224987</v>
       </c>
       <c r="L37" t="n">
         <v>105.174378339236</v>
@@ -7110,37 +7110,37 @@
         <v>261.6327294824115</v>
       </c>
       <c r="O37" t="n">
-        <v>314.7696368270681</v>
+        <v>314.7696368270682</v>
       </c>
       <c r="P37" t="n">
-        <v>334.0925911715889</v>
+        <v>334.092591171589</v>
       </c>
       <c r="Q37" t="n">
-        <v>260.136944897978</v>
+        <v>334.092591171589</v>
       </c>
       <c r="R37" t="n">
-        <v>260.136944897978</v>
+        <v>334.092591171589</v>
       </c>
       <c r="S37" t="n">
-        <v>260.136944897978</v>
+        <v>257.5083480969263</v>
       </c>
       <c r="T37" t="n">
-        <v>260.136944897978</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="U37" t="n">
-        <v>260.136944897978</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="V37" t="n">
-        <v>260.136944897978</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="W37" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="X37" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.26985155906885</v>
+        <v>34.26985155906886</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1607.864144030959</v>
+        <v>984.5288757432179</v>
       </c>
       <c r="C38" t="n">
-        <v>1254.121217383304</v>
+        <v>984.5288757432179</v>
       </c>
       <c r="D38" t="n">
-        <v>1238.389709105052</v>
+        <v>643.3448761046045</v>
       </c>
       <c r="E38" t="n">
-        <v>863.1584848003688</v>
+        <v>643.3448761046045</v>
       </c>
       <c r="F38" t="n">
-        <v>455.8865154670218</v>
+        <v>643.3448761046045</v>
       </c>
       <c r="G38" t="n">
-        <v>34.26985155906887</v>
+        <v>221.7282121966516</v>
       </c>
       <c r="H38" t="n">
-        <v>34.26985155906887</v>
+        <v>221.7282121966516</v>
       </c>
       <c r="I38" t="n">
-        <v>34.26985155906887</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="J38" t="n">
-        <v>79.05676692452994</v>
+        <v>79.05676692452948</v>
       </c>
       <c r="K38" t="n">
-        <v>253.4458088364311</v>
+        <v>253.4458088364302</v>
       </c>
       <c r="L38" t="n">
-        <v>524.7738982921696</v>
+        <v>524.7738982921687</v>
       </c>
       <c r="M38" t="n">
-        <v>855.5546368220787</v>
+        <v>855.5546368220777</v>
       </c>
       <c r="N38" t="n">
-        <v>1184.845317505022</v>
+        <v>1184.845317505021</v>
       </c>
       <c r="O38" t="n">
         <v>1458.875810941763</v>
       </c>
       <c r="P38" t="n">
-        <v>1648.606924555084</v>
+        <v>1648.606924555083</v>
       </c>
       <c r="Q38" t="n">
         <v>1713.492577953443</v>
       </c>
       <c r="R38" t="n">
-        <v>1607.864144030959</v>
+        <v>1686.515768659365</v>
       </c>
       <c r="S38" t="n">
-        <v>1607.864144030959</v>
+        <v>1686.515768659365</v>
       </c>
       <c r="T38" t="n">
-        <v>1607.864144030959</v>
+        <v>1686.515768659365</v>
       </c>
       <c r="U38" t="n">
-        <v>1607.864144030959</v>
+        <v>1686.515768659365</v>
       </c>
       <c r="V38" t="n">
-        <v>1607.864144030959</v>
+        <v>1362.394775114767</v>
       </c>
       <c r="W38" t="n">
-        <v>1607.864144030959</v>
+        <v>1362.394775114767</v>
       </c>
       <c r="X38" t="n">
-        <v>1607.864144030959</v>
+        <v>1362.394775114767</v>
       </c>
       <c r="Y38" t="n">
-        <v>1607.864144030959</v>
+        <v>1362.394775114767</v>
       </c>
     </row>
     <row r="39">
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>337.7565556323378</v>
+        <v>337.1986841944933</v>
       </c>
       <c r="C39" t="n">
-        <v>148.3442813653015</v>
+        <v>337.1986841944933</v>
       </c>
       <c r="D39" t="n">
-        <v>148.3442813653015</v>
+        <v>337.1986841944933</v>
       </c>
       <c r="E39" t="n">
-        <v>148.3442813653015</v>
+        <v>337.1986841944933</v>
       </c>
       <c r="F39" t="n">
-        <v>148.3442813653015</v>
+        <v>303.2413842096682</v>
       </c>
       <c r="G39" t="n">
-        <v>34.26985155906887</v>
+        <v>153.7713032363694</v>
       </c>
       <c r="H39" t="n">
-        <v>34.26985155906887</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="I39" t="n">
-        <v>34.26985155906887</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="J39" t="n">
-        <v>54.26751303566515</v>
+        <v>54.26751303566514</v>
       </c>
       <c r="K39" t="n">
-        <v>54.26751303566515</v>
+        <v>215.2015677608787</v>
       </c>
       <c r="L39" t="n">
-        <v>336.9497524442234</v>
+        <v>497.8838071694369</v>
       </c>
       <c r="M39" t="n">
-        <v>711.581256791613</v>
+        <v>872.5153115168265</v>
       </c>
       <c r="N39" t="n">
         <v>1081.151310206852</v>
@@ -7271,7 +7271,7 @@
         <v>1394.040101098266</v>
       </c>
       <c r="P39" t="n">
-        <v>1623.084438805587</v>
+        <v>1623.084438805586</v>
       </c>
       <c r="Q39" t="n">
         <v>1713.492577953443</v>
@@ -7280,25 +7280,25 @@
         <v>1713.492577953443</v>
       </c>
       <c r="S39" t="n">
-        <v>1713.492577953443</v>
+        <v>1534.398853588664</v>
       </c>
       <c r="T39" t="n">
-        <v>1713.492577953443</v>
+        <v>1534.398853588664</v>
       </c>
       <c r="U39" t="n">
-        <v>1473.919383373323</v>
+        <v>1294.825659008544</v>
       </c>
       <c r="V39" t="n">
-        <v>1230.839665276957</v>
+        <v>1051.745940912178</v>
       </c>
       <c r="W39" t="n">
-        <v>961.4410960072488</v>
+        <v>782.3473716424693</v>
       </c>
       <c r="X39" t="n">
-        <v>741.9331016239452</v>
+        <v>562.8393772591656</v>
       </c>
       <c r="Y39" t="n">
-        <v>516.2924085592729</v>
+        <v>337.1986841944933</v>
       </c>
     </row>
     <row r="40">
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>202.4084181974248</v>
+        <v>110.8540946337315</v>
       </c>
       <c r="C40" t="n">
-        <v>34.26985155906887</v>
+        <v>110.8540946337315</v>
       </c>
       <c r="D40" t="n">
-        <v>34.26985155906887</v>
+        <v>110.8540946337315</v>
       </c>
       <c r="E40" t="n">
-        <v>34.26985155906887</v>
+        <v>110.8540946337315</v>
       </c>
       <c r="F40" t="n">
-        <v>34.26985155906887</v>
+        <v>110.8540946337315</v>
       </c>
       <c r="G40" t="n">
-        <v>34.26985155906887</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="H40" t="n">
-        <v>34.26985155906887</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="I40" t="n">
-        <v>34.26985155906887</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="J40" t="n">
-        <v>34.26985155906887</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="K40" t="n">
-        <v>42.08562864224987</v>
+        <v>42.08562864224986</v>
       </c>
       <c r="L40" t="n">
-        <v>105.1743783392361</v>
+        <v>105.174378339236</v>
       </c>
       <c r="M40" t="n">
         <v>180.2885088486306</v>
@@ -7347,37 +7347,37 @@
         <v>261.6327294824115</v>
       </c>
       <c r="O40" t="n">
-        <v>314.7696368270682</v>
+        <v>314.7696368270681</v>
       </c>
       <c r="P40" t="n">
-        <v>334.092591171589</v>
+        <v>334.0925911715889</v>
       </c>
       <c r="Q40" t="n">
-        <v>334.092591171589</v>
+        <v>334.0925911715889</v>
       </c>
       <c r="R40" t="n">
-        <v>334.092591171589</v>
+        <v>334.0925911715889</v>
       </c>
       <c r="S40" t="n">
-        <v>334.092591171589</v>
+        <v>334.0925911715889</v>
       </c>
       <c r="T40" t="n">
-        <v>334.092591171589</v>
+        <v>110.8540946337315</v>
       </c>
       <c r="U40" t="n">
-        <v>334.092591171589</v>
+        <v>110.8540946337315</v>
       </c>
       <c r="V40" t="n">
-        <v>334.092591171589</v>
+        <v>110.8540946337315</v>
       </c>
       <c r="W40" t="n">
-        <v>334.092591171589</v>
+        <v>110.8540946337315</v>
       </c>
       <c r="X40" t="n">
-        <v>334.092591171589</v>
+        <v>110.8540946337315</v>
       </c>
       <c r="Y40" t="n">
-        <v>334.092591171589</v>
+        <v>110.8540946337315</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1335.626678581894</v>
+        <v>816.7730451970988</v>
       </c>
       <c r="C41" t="n">
-        <v>981.8837519342385</v>
+        <v>816.7730451970988</v>
       </c>
       <c r="D41" t="n">
         <v>816.7730451970988</v>
@@ -7411,25 +7411,25 @@
         <v>34.26985155906885</v>
       </c>
       <c r="J41" t="n">
-        <v>79.0567669245296</v>
+        <v>79.05676692452928</v>
       </c>
       <c r="K41" t="n">
-        <v>253.4458088364305</v>
+        <v>253.4458088364302</v>
       </c>
       <c r="L41" t="n">
-        <v>524.7738982921691</v>
+        <v>524.7738982921687</v>
       </c>
       <c r="M41" t="n">
-        <v>855.554636822078</v>
+        <v>855.5546368220778</v>
       </c>
       <c r="N41" t="n">
-        <v>1184.845317505022</v>
+        <v>1184.845317505021</v>
       </c>
       <c r="O41" t="n">
         <v>1458.875810941763</v>
       </c>
       <c r="P41" t="n">
-        <v>1648.606924555084</v>
+        <v>1648.606924555083</v>
       </c>
       <c r="Q41" t="n">
         <v>1713.492577953443</v>
@@ -7450,13 +7450,13 @@
         <v>1713.492577953443</v>
       </c>
       <c r="W41" t="n">
-        <v>1713.492577953443</v>
+        <v>1566.336966119479</v>
       </c>
       <c r="X41" t="n">
-        <v>1713.492577953443</v>
+        <v>1202.920082993513</v>
       </c>
       <c r="Y41" t="n">
-        <v>1713.492577953443</v>
+        <v>816.7730451970988</v>
       </c>
     </row>
     <row r="42">
@@ -7466,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>337.7565556323373</v>
+        <v>249.3598784505149</v>
       </c>
       <c r="C42" t="n">
-        <v>148.344281365301</v>
+        <v>59.94760418347866</v>
       </c>
       <c r="D42" t="n">
-        <v>34.26985155906885</v>
+        <v>59.94760418347866</v>
       </c>
       <c r="E42" t="n">
         <v>34.26985155906885</v>
@@ -7490,52 +7490,52 @@
         <v>34.26985155906885</v>
       </c>
       <c r="J42" t="n">
-        <v>54.26751303566515</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="K42" t="n">
-        <v>54.26751303566515</v>
+        <v>111.2789305152482</v>
       </c>
       <c r="L42" t="n">
-        <v>303.5530307759503</v>
+        <v>393.9611699238065</v>
       </c>
       <c r="M42" t="n">
-        <v>678.1845351233399</v>
+        <v>768.5926742711961</v>
       </c>
       <c r="N42" t="n">
-        <v>1081.151310206852</v>
+        <v>1171.559449354708</v>
       </c>
       <c r="O42" t="n">
-        <v>1394.040101098266</v>
+        <v>1484.448240246122</v>
       </c>
       <c r="P42" t="n">
-        <v>1623.084438805586</v>
+        <v>1713.492577953443</v>
       </c>
       <c r="Q42" t="n">
         <v>1713.492577953443</v>
       </c>
       <c r="R42" t="n">
-        <v>1713.492577953443</v>
+        <v>1625.653772209464</v>
       </c>
       <c r="S42" t="n">
-        <v>1713.492577953443</v>
+        <v>1446.560047844686</v>
       </c>
       <c r="T42" t="n">
-        <v>1713.492577953443</v>
+        <v>1446.560047844686</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.919383373323</v>
+        <v>1206.986853264566</v>
       </c>
       <c r="V42" t="n">
-        <v>1230.839665276957</v>
+        <v>963.9071351681996</v>
       </c>
       <c r="W42" t="n">
-        <v>961.4410960072483</v>
+        <v>694.5085658984909</v>
       </c>
       <c r="X42" t="n">
-        <v>741.9331016239447</v>
+        <v>475.0005715151873</v>
       </c>
       <c r="Y42" t="n">
-        <v>516.2924085592724</v>
+        <v>249.3598784505149</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1713.492577953443</v>
+        <v>109.9315251026573</v>
       </c>
       <c r="C43" t="n">
-        <v>1713.492577953443</v>
+        <v>109.9315251026573</v>
       </c>
       <c r="D43" t="n">
-        <v>1713.492577953443</v>
+        <v>109.9315251026573</v>
       </c>
       <c r="E43" t="n">
-        <v>1713.492577953443</v>
+        <v>109.9315251026573</v>
       </c>
       <c r="F43" t="n">
-        <v>1583.423255618375</v>
+        <v>109.9315251026573</v>
       </c>
       <c r="G43" t="n">
-        <v>1413.669838340923</v>
+        <v>109.9315251026573</v>
       </c>
       <c r="H43" t="n">
-        <v>1413.669838340923</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="I43" t="n">
-        <v>1413.669838340923</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="J43" t="n">
-        <v>1413.669838340923</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="K43" t="n">
-        <v>1421.485615424104</v>
+        <v>42.08562864224987</v>
       </c>
       <c r="L43" t="n">
-        <v>1484.57436512109</v>
+        <v>105.1743783392361</v>
       </c>
       <c r="M43" t="n">
-        <v>1559.688495630484</v>
+        <v>180.2885088486306</v>
       </c>
       <c r="N43" t="n">
-        <v>1641.032716264265</v>
+        <v>261.6327294824116</v>
       </c>
       <c r="O43" t="n">
-        <v>1694.169623608922</v>
+        <v>314.7696368270683</v>
       </c>
       <c r="P43" t="n">
-        <v>1713.492577953443</v>
+        <v>334.0925911715892</v>
       </c>
       <c r="Q43" t="n">
-        <v>1713.492577953443</v>
+        <v>334.0925911715892</v>
       </c>
       <c r="R43" t="n">
-        <v>1713.492577953443</v>
+        <v>334.0925911715892</v>
       </c>
       <c r="S43" t="n">
-        <v>1713.492577953443</v>
+        <v>334.0925911715892</v>
       </c>
       <c r="T43" t="n">
-        <v>1713.492577953443</v>
+        <v>334.0925911715892</v>
       </c>
       <c r="U43" t="n">
-        <v>1713.492577953443</v>
+        <v>334.0925911715892</v>
       </c>
       <c r="V43" t="n">
-        <v>1713.492577953443</v>
+        <v>334.0925911715892</v>
       </c>
       <c r="W43" t="n">
-        <v>1713.492577953443</v>
+        <v>334.0925911715892</v>
       </c>
       <c r="X43" t="n">
-        <v>1713.492577953443</v>
+        <v>109.9315251026573</v>
       </c>
       <c r="Y43" t="n">
-        <v>1713.492577953443</v>
+        <v>109.9315251026573</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1713.492577953443</v>
+        <v>745.710399463823</v>
       </c>
       <c r="C44" t="n">
-        <v>1713.492577953443</v>
+        <v>391.9674728161676</v>
       </c>
       <c r="D44" t="n">
-        <v>1372.308578314829</v>
+        <v>50.78347317755419</v>
       </c>
       <c r="E44" t="n">
-        <v>997.0773540101465</v>
+        <v>50.78347317755419</v>
       </c>
       <c r="F44" t="n">
-        <v>589.8053846767995</v>
+        <v>50.78347317755419</v>
       </c>
       <c r="G44" t="n">
-        <v>168.1887207688466</v>
+        <v>50.78347317755419</v>
       </c>
       <c r="H44" t="n">
-        <v>34.26985155906885</v>
+        <v>50.78347317755419</v>
       </c>
       <c r="I44" t="n">
         <v>34.26985155906885</v>
       </c>
       <c r="J44" t="n">
-        <v>79.05676692452965</v>
+        <v>79.0567669245296</v>
       </c>
       <c r="K44" t="n">
         <v>253.4458088364305</v>
@@ -7672,28 +7672,28 @@
         <v>1713.492577953443</v>
       </c>
       <c r="R44" t="n">
-        <v>1713.492577953443</v>
+        <v>1607.864144030959</v>
       </c>
       <c r="S44" t="n">
-        <v>1713.492577953443</v>
+        <v>1411.140952428387</v>
       </c>
       <c r="T44" t="n">
-        <v>1713.492577953443</v>
+        <v>1411.140952428387</v>
       </c>
       <c r="U44" t="n">
-        <v>1713.492577953443</v>
+        <v>1411.140952428387</v>
       </c>
       <c r="V44" t="n">
-        <v>1713.492577953443</v>
+        <v>1087.01995888379</v>
       </c>
       <c r="W44" t="n">
-        <v>1713.492577953443</v>
+        <v>745.710399463823</v>
       </c>
       <c r="X44" t="n">
-        <v>1713.492577953443</v>
+        <v>745.710399463823</v>
       </c>
       <c r="Y44" t="n">
-        <v>1713.492577953443</v>
+        <v>745.710399463823</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>718.4531622264149</v>
+        <v>223.6821258261051</v>
       </c>
       <c r="C45" t="n">
-        <v>529.0408879593786</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="D45" t="n">
-        <v>368.2607717204103</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="E45" t="n">
-        <v>194.6975678418248</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="F45" t="n">
         <v>34.26985155906885</v>
@@ -7727,7 +7727,7 @@
         <v>34.26985155906885</v>
       </c>
       <c r="J45" t="n">
-        <v>54.26751303566515</v>
+        <v>34.26985155906885</v>
       </c>
       <c r="K45" t="n">
         <v>111.2789305152487</v>
@@ -7754,25 +7754,25 @@
         <v>1713.492577953443</v>
       </c>
       <c r="S45" t="n">
-        <v>1713.492577953443</v>
+        <v>1634.892810195408</v>
       </c>
       <c r="T45" t="n">
-        <v>1581.710897181446</v>
+        <v>1420.882295220276</v>
       </c>
       <c r="U45" t="n">
-        <v>1342.137702601326</v>
+        <v>1181.309100640156</v>
       </c>
       <c r="V45" t="n">
-        <v>1342.137702601326</v>
+        <v>938.2293825437898</v>
       </c>
       <c r="W45" t="n">
-        <v>1342.137702601326</v>
+        <v>668.8308132740812</v>
       </c>
       <c r="X45" t="n">
-        <v>1122.629708218022</v>
+        <v>449.3228188907775</v>
       </c>
       <c r="Y45" t="n">
-        <v>896.98901515335</v>
+        <v>223.6821258261051</v>
       </c>
     </row>
     <row r="46">
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.26985155906885</v>
+        <v>334.0925911715892</v>
       </c>
       <c r="C46" t="n">
-        <v>34.26985155906885</v>
+        <v>180.9189932264534</v>
       </c>
       <c r="D46" t="n">
         <v>34.26985155906885</v>
@@ -7839,19 +7839,19 @@
         <v>334.0925911715892</v>
       </c>
       <c r="U46" t="n">
-        <v>42.55584263524969</v>
+        <v>334.0925911715892</v>
       </c>
       <c r="V46" t="n">
-        <v>34.26985155906885</v>
+        <v>334.0925911715892</v>
       </c>
       <c r="W46" t="n">
-        <v>34.26985155906885</v>
+        <v>334.0925911715892</v>
       </c>
       <c r="X46" t="n">
-        <v>34.26985155906885</v>
+        <v>334.0925911715892</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.26985155906885</v>
+        <v>334.0925911715892</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K3" t="n">
-        <v>171.3658051887314</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L3" t="n">
         <v>172.23559297146</v>
@@ -8069,10 +8069,10 @@
         <v>176.6027710248758</v>
       </c>
       <c r="N3" t="n">
-        <v>163.3068757699624</v>
+        <v>163.4361383816801</v>
       </c>
       <c r="O3" t="n">
-        <v>173.9674182222222</v>
+        <v>177.037405250518</v>
       </c>
       <c r="P3" t="n">
         <v>163.4487770454829</v>
@@ -8300,19 +8300,19 @@
         <v>171.3658051887314</v>
       </c>
       <c r="L6" t="n">
-        <v>172.23559297146</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M6" t="n">
-        <v>176.4735084131581</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N6" t="n">
-        <v>160.2368887416667</v>
+        <v>163.3068757699624</v>
       </c>
       <c r="O6" t="n">
         <v>177.1666678622357</v>
       </c>
       <c r="P6" t="n">
-        <v>163.4487770454829</v>
+        <v>166.6480266854964</v>
       </c>
       <c r="Q6" t="n">
         <v>136.1300824528302</v>
@@ -8537,16 +8537,16 @@
         <v>171.3658051887314</v>
       </c>
       <c r="L9" t="n">
-        <v>172.23559297146</v>
+        <v>172.1063303597423</v>
       </c>
       <c r="M9" t="n">
-        <v>176.4735084131581</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N9" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O9" t="n">
-        <v>173.9674182222222</v>
+        <v>177.1666678622357</v>
       </c>
       <c r="P9" t="n">
         <v>166.6480266854964</v>
@@ -8774,13 +8774,13 @@
         <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>135.3321829024697</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>310.6138585746227</v>
+        <v>205.6414977204508</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -8789,7 +8789,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.80872977822762</v>
+        <v>44.8087297782276</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -9017,13 +9017,13 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>310.6138585746227</v>
+        <v>114.3201450458481</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P15" t="n">
-        <v>10.07016054990424</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9242,10 +9242,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J18" t="n">
-        <v>81.70699090058493</v>
+        <v>61.50733284341695</v>
       </c>
       <c r="K18" t="n">
-        <v>66.40111272997903</v>
+        <v>86.6007707871472</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
@@ -9263,7 +9263,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.80872977822762</v>
+        <v>44.8087297782276</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9479,7 +9479,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J21" t="n">
-        <v>81.70699090058493</v>
+        <v>61.50733284341696</v>
       </c>
       <c r="K21" t="n">
         <v>171.373473584151</v>
@@ -9488,10 +9488,10 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M21" t="n">
-        <v>105.4831677812253</v>
+        <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>310.6138585746227</v>
+        <v>225.8411557776192</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -9500,7 +9500,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
-        <v>136.1300824528302</v>
+        <v>44.80872977822762</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9716,7 +9716,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>81.70699090058493</v>
+        <v>61.50733284341696</v>
       </c>
       <c r="K24" t="n">
         <v>171.373473584151</v>
@@ -9734,10 +9734,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P24" t="n">
-        <v>10.07016054990447</v>
+        <v>121.5911712816753</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.1300824528302</v>
+        <v>44.80872977822762</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9953,10 +9953,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>81.70699090058493</v>
+        <v>61.50733284341696</v>
       </c>
       <c r="K27" t="n">
-        <v>8.813822346561523</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L27" t="n">
         <v>240.3045437566416</v>
@@ -9968,13 +9968,13 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O27" t="n">
-        <v>255.2227828913207</v>
+        <v>170.4500800943169</v>
       </c>
       <c r="P27" t="n">
-        <v>172.6298117874947</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.1300824528302</v>
+        <v>44.80872977822762</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10202,13 +10202,13 @@
         <v>301.77688131</v>
       </c>
       <c r="N30" t="n">
-        <v>310.6138585746227</v>
+        <v>225.8411557776192</v>
       </c>
       <c r="O30" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P30" t="n">
-        <v>121.5911712816753</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q30" t="n">
         <v>44.80872977822762</v>
@@ -10427,10 +10427,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>81.70699090058493</v>
+        <v>61.50733284341696</v>
       </c>
       <c r="K33" t="n">
-        <v>171.373473584151</v>
+        <v>86.60077078714745</v>
       </c>
       <c r="L33" t="n">
         <v>240.3045437566416</v>
@@ -10445,7 +10445,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P33" t="n">
-        <v>101.3915132245072</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q33" t="n">
         <v>44.80872977822762</v>
@@ -10664,10 +10664,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>81.70699090058493</v>
+        <v>61.50733284341696</v>
       </c>
       <c r="K36" t="n">
-        <v>171.373473584151</v>
+        <v>86.60077078714745</v>
       </c>
       <c r="L36" t="n">
         <v>240.3045437566416</v>
@@ -10682,7 +10682,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P36" t="n">
-        <v>101.3915132245072</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q36" t="n">
         <v>44.80872977822762</v>
@@ -10904,7 +10904,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>8.813822346561523</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L39" t="n">
         <v>240.3045437566416</v>
@@ -10913,7 +10913,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N39" t="n">
-        <v>276.8797962834381</v>
+        <v>114.320145045848</v>
       </c>
       <c r="O39" t="n">
         <v>255.2227828913207</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>109.5746066315038</v>
+        <v>109.5746066315034</v>
       </c>
       <c r="K41" t="n">
         <v>210.0462273461148</v>
@@ -11138,13 +11138,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>81.70699090058493</v>
+        <v>61.50733284341695</v>
       </c>
       <c r="K42" t="n">
-        <v>8.813822346561494</v>
+        <v>86.60077078714674</v>
       </c>
       <c r="L42" t="n">
-        <v>206.5704814654566</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M42" t="n">
         <v>301.77688131</v>
@@ -11159,7 +11159,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.1300824528302</v>
+        <v>44.8087297782276</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11317,7 +11317,7 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q44" t="n">
-        <v>137.5801139476183</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -11375,10 +11375,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>81.70699090058493</v>
+        <v>61.50733284341695</v>
       </c>
       <c r="K45" t="n">
-        <v>66.40111272997922</v>
+        <v>86.6007707871472</v>
       </c>
       <c r="L45" t="n">
         <v>240.3045437566416</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>29.54381224683289</v>
       </c>
       <c r="C11" t="n">
         <v>350.2054973811788</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.1724560503182</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.0355274371477</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.3581850322761</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="12">
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>175.6817776005143</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -23348,7 +23348,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>147.9753801635659</v>
@@ -23399,13 +23399,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>81.3261676713125</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177.6169206649681</v>
+        <v>169.4137894995491</v>
       </c>
       <c r="C13" t="n">
         <v>166.4571809719723</v>
@@ -23433,13 +23433,13 @@
         <v>168.0558831046783</v>
       </c>
       <c r="H13" t="n">
-        <v>83.37127877545558</v>
+        <v>160.0907230875781</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>145.4593121702873</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.6457557339851</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>221.0061115724788</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6213810509761</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E14" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>417.4004972688733</v>
+        <v>35.26068507214575</v>
       </c>
       <c r="H14" t="n">
         <v>332.2978024096751</v>
@@ -23551,19 +23551,19 @@
         <v>216.1724560503182</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0355274371477</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>102.7997492984117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="15">
@@ -23582,19 +23582,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>146.9066633664149</v>
+        <v>147.9753801635659</v>
       </c>
       <c r="H15" t="n">
-        <v>118.3064371605275</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>80.8791522657921</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>86.96041768653851</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>16.27944320541744</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23636,7 +23636,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.6169206649681</v>
+        <v>102.7118638568155</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
@@ -23661,7 +23661,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
         <v>138.9268822184467</v>
@@ -23670,13 +23670,13 @@
         <v>168.0558831046783</v>
       </c>
       <c r="H16" t="n">
-        <v>160.0907230875781</v>
+        <v>160.090723087578</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>145.4593121702872</v>
       </c>
       <c r="J16" t="n">
-        <v>64.9566969001025</v>
+        <v>74.64575573398508</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.21608981087481</v>
+        <v>73.21608981087479</v>
       </c>
       <c r="R16" t="n">
         <v>174.4332797560228</v>
@@ -23718,7 +23718,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X16" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>217.1412728141684</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>417.4004972688733</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>332.2978024096751</v>
@@ -23791,16 +23791,16 @@
         <v>250.0355274371477</v>
       </c>
       <c r="V17" t="n">
-        <v>87.8823874268023</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X17" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>286.0209676363761</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23825,13 +23825,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>147.9753801635659</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>118.3064371605275</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>75.9670796968521</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>86.96041768653853</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>177.3027871211308</v>
       </c>
       <c r="T18" t="n">
-        <v>211.8704098253805</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>237.1774626343188</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>156.8224301124208</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>177.6169206649681</v>
+        <v>40.88313153615104</v>
       </c>
       <c r="C19" t="n">
         <v>166.4571809719723</v>
@@ -23907,13 +23907,13 @@
         <v>168.0558831046783</v>
       </c>
       <c r="H19" t="n">
-        <v>160.0907230875781</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>145.4593121702873</v>
       </c>
       <c r="J19" t="n">
-        <v>66.44262456856632</v>
+        <v>74.6457557339851</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>221.0061115724788</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>288.6213810509761</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
         <v>371.4789120616362</v>
@@ -23983,7 +23983,7 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>417.4004972688733</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>332.2978024096751</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>72.85706913787288</v>
       </c>
       <c r="S20" t="n">
-        <v>81.2480749590642</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>216.1724560503182</v>
@@ -24028,16 +24028,16 @@
         <v>250.0355274371477</v>
       </c>
       <c r="V20" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="21">
@@ -24047,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>151.3295192994996</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -24101,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>211.8704098253805</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>158.1035982794274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24138,13 +24138,13 @@
         <v>141.676141212225</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>10.15825310673009</v>
+        <v>168.0558831046783</v>
       </c>
       <c r="H22" t="n">
-        <v>160.0907230875781</v>
+        <v>153.5769179605184</v>
       </c>
       <c r="I22" t="n">
         <v>145.4593121702873</v>
@@ -24189,7 +24189,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W22" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>221.9194554082425</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>350.2054973811788</v>
@@ -24214,13 +24214,13 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>403.1992496400135</v>
+        <v>286.0209676363762</v>
       </c>
       <c r="G23" t="n">
-        <v>417.4004972688733</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>332.2978024096751</v>
@@ -24256,25 +24256,25 @@
         <v>104.5721495832593</v>
       </c>
       <c r="S23" t="n">
-        <v>17.09240577320654</v>
+        <v>194.7559596865454</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.1724560503182</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.0355274371477</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24296,13 +24296,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>147.9753801635659</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>118.3064371605275</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>78.85448356858009</v>
+        <v>30.54800118031822</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24344,16 +24344,16 @@
         <v>237.1774626343188</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24375,7 +24375,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F25" t="n">
-        <v>59.2436428162202</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
         <v>168.0558831046783</v>
@@ -24411,7 +24411,7 @@
         <v>73.21608981087481</v>
       </c>
       <c r="R25" t="n">
-        <v>174.4332797560228</v>
+        <v>166.230148590604</v>
       </c>
       <c r="S25" t="n">
         <v>224.1993386963352</v>
@@ -24420,7 +24420,7 @@
         <v>221.0061115724788</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6213810509761</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24432,7 +24432,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
-        <v>153.3988777508948</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F26" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>417.4004972688733</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>332.2978024096751</v>
+        <v>256.6411350631864</v>
       </c>
       <c r="I26" t="n">
         <v>185.5837770312069</v>
@@ -24496,13 +24496,13 @@
         <v>194.7559596865454</v>
       </c>
       <c r="T26" t="n">
-        <v>216.1724560503182</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.0355274371477</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>337.8964638257669</v>
@@ -24524,25 +24524,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>147.9753801635659</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>118.3064371605275</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.8791522657921</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>86.96041768653853</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24581,16 +24581,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>79.81043546864024</v>
+        <v>70.7619036715561</v>
       </c>
     </row>
     <row r="28">
@@ -24657,19 +24657,19 @@
         <v>221.0061115724788</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>288.6213810509761</v>
       </c>
       <c r="V28" t="n">
-        <v>236.9058840190309</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W28" t="n">
-        <v>290.3107070893353</v>
+        <v>210.6274676871089</v>
       </c>
       <c r="X28" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y28" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
         <v>337.7721596422273</v>
@@ -24691,16 +24691,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>378.8969194527051</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>332.2978024096751</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>185.5837770312069</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>194.7559596865454</v>
       </c>
       <c r="T29" t="n">
-        <v>138.5576402806273</v>
+        <v>216.1724560503182</v>
       </c>
       <c r="U29" t="n">
         <v>250.0355274371477</v>
@@ -24745,10 +24745,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
@@ -24767,19 +24767,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>153.9758573830525</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>147.9753801635659</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>80.8791522657921</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>86.96041768653853</v>
+        <v>47.20165806794721</v>
       </c>
       <c r="S30" t="n">
         <v>177.3027871211308</v>
       </c>
       <c r="T30" t="n">
-        <v>211.8704098253805</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
-        <v>65.85774056830897</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
         <v>138.9268822184467</v>
@@ -24891,16 +24891,16 @@
         <v>224.1993386963352</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.0061115724788</v>
       </c>
       <c r="U31" t="n">
         <v>288.6213810509761</v>
       </c>
       <c r="V31" t="n">
-        <v>245.1090151844499</v>
+        <v>238.5952100573902</v>
       </c>
       <c r="W31" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>221.9194554082425</v>
@@ -24922,22 +24922,22 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>417.4004972688733</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>332.2978024096751</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>185.5837770312069</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>58.06176322030691</v>
       </c>
       <c r="S32" t="n">
-        <v>102.4938951378776</v>
+        <v>194.7559596865454</v>
       </c>
       <c r="T32" t="n">
-        <v>216.1724560503182</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.0355274371477</v>
       </c>
       <c r="V32" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
         <v>382.2855674184499</v>
@@ -24998,25 +24998,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>57.28491610054277</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>147.9753801635659</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>118.3064371605275</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>80.8791522657921</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>177.3027871211308</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>211.8704098253805</v>
@@ -25055,16 +25055,16 @@
         <v>237.1774626343188</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>66.48006067782853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25077,10 +25077,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>14.81531900628806</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
@@ -25125,7 +25125,7 @@
         <v>174.4332797560228</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>224.1993386963352</v>
       </c>
       <c r="T34" t="n">
         <v>221.0061115724788</v>
@@ -25134,7 +25134,7 @@
         <v>288.6213810509761</v>
       </c>
       <c r="V34" t="n">
-        <v>172.4838416643903</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W34" t="n">
         <v>290.3107070893353</v>
@@ -25156,16 +25156,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>207.1297699817512</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>417.4004972688733</v>
@@ -25201,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>104.5721495832593</v>
       </c>
       <c r="S35" t="n">
-        <v>70.44141960225063</v>
+        <v>194.7559596865454</v>
       </c>
       <c r="T35" t="n">
         <v>216.1724560503182</v>
@@ -25219,10 +25219,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>128.4273153652121</v>
+        <v>97.72802776367578</v>
       </c>
       <c r="H36" t="n">
         <v>118.3064371605275</v>
@@ -25283,19 +25283,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>177.3027871211308</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>211.8704098253805</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.1774626343188</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25356,16 +25356,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>73.21608981087481</v>
       </c>
       <c r="R37" t="n">
         <v>174.4332797560228</v>
       </c>
       <c r="S37" t="n">
-        <v>224.1993386963352</v>
+        <v>148.3809380524191</v>
       </c>
       <c r="T37" t="n">
-        <v>221.0061115724788</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>288.6213810509761</v>
@@ -25374,7 +25374,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>66.70228468381526</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D38" t="n">
-        <v>322.1979664467578</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>332.2978024096751</v>
       </c>
       <c r="I38" t="n">
-        <v>185.5837770312069</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>77.86510838212223</v>
       </c>
       <c r="S38" t="n">
         <v>194.7559596865454</v>
@@ -25450,7 +25450,7 @@
         <v>250.0355274371477</v>
       </c>
       <c r="V38" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>337.8964638257669</v>
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -25481,13 +25481,13 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>125.2057121349515</v>
       </c>
       <c r="G39" t="n">
-        <v>35.04169465539556</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>118.3064371605275</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>80.8791522657921</v>
@@ -25520,7 +25520,7 @@
         <v>86.96041768653853</v>
       </c>
       <c r="S39" t="n">
-        <v>177.3027871211308</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>211.8704098253805</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.24958942054548</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
@@ -25563,7 +25563,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.0558831046783</v>
+        <v>92.23748246076227</v>
       </c>
       <c r="H40" t="n">
         <v>160.0907230875781</v>
@@ -25602,7 +25602,7 @@
         <v>224.1993386963352</v>
       </c>
       <c r="T40" t="n">
-        <v>221.0061115724788</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>288.6213810509761</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
-        <v>174.312559972459</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
-        <v>337.8964638257669</v>
+        <v>192.2124081101425</v>
       </c>
       <c r="X41" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>46.23862956840868</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>146.406596741634</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>86.96041768653852</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>177.3027871211308</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>211.8704098253805</v>
@@ -25797,13 +25797,13 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>10.15825310672989</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>168.0558831046783</v>
       </c>
       <c r="H43" t="n">
-        <v>160.0907230875781</v>
+        <v>85.18566627942549</v>
       </c>
       <c r="I43" t="n">
         <v>145.4593121702873</v>
@@ -25851,7 +25851,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X43" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>217.1412728141684</v>
@@ -25867,25 +25867,25 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C44" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>417.4004972688733</v>
       </c>
       <c r="H44" t="n">
-        <v>199.7181218919952</v>
+        <v>332.2978024096751</v>
       </c>
       <c r="I44" t="n">
-        <v>185.5837770312069</v>
+        <v>169.2352916289065</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>104.5721495832593</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>194.7559596865454</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>216.1724560503182</v>
@@ -25924,10 +25924,10 @@
         <v>250.0355274371477</v>
       </c>
       <c r="V44" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>359.7827142947061</v>
@@ -25943,19 +25943,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>147.9753801635659</v>
@@ -25994,19 +25994,19 @@
         <v>86.96041768653852</v>
       </c>
       <c r="S45" t="n">
-        <v>177.3027871211308</v>
+        <v>99.48901704067606</v>
       </c>
       <c r="T45" t="n">
-        <v>81.40654586110361</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
-        <v>166.4571809719723</v>
+        <v>14.81531900628795</v>
       </c>
       <c r="D46" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>141.676141212225</v>
@@ -26079,10 +26079,10 @@
         <v>221.0061115724788</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>288.6213810509761</v>
       </c>
       <c r="V46" t="n">
-        <v>236.9058840190309</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W46" t="n">
         <v>290.3107070893353</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>518738.3846637022</v>
+        <v>518738.3846637024</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>518738.3846637025</v>
+        <v>518738.3846637024</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>518738.3846637022</v>
+        <v>518738.3846637024</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>518738.3846637024</v>
+        <v>518738.3846637023</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>518738.3846637025</v>
+        <v>518738.3846637023</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>518738.3846637023</v>
+        <v>518738.3846637024</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>518738.3846637024</v>
+        <v>518738.3846637023</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>518738.3846637023</v>
+        <v>518738.3846637024</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>518738.3846637025</v>
+        <v>518738.3846637023</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>518738.3846637023</v>
+        <v>518738.3846637024</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>518738.3846637025</v>
+        <v>518738.3846637023</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>639769.9538963834</v>
       </c>
       <c r="C2" t="n">
-        <v>639769.9538963836</v>
+        <v>639769.9538963835</v>
       </c>
       <c r="D2" t="n">
-        <v>639769.9538963836</v>
+        <v>639769.9538963834</v>
       </c>
       <c r="E2" t="n">
         <v>362941.7142391872</v>
@@ -26334,19 +26334,19 @@
         <v>362941.7142391871</v>
       </c>
       <c r="I2" t="n">
+        <v>362941.7142391871</v>
+      </c>
+      <c r="J2" t="n">
         <v>362941.714239187</v>
-      </c>
-      <c r="J2" t="n">
-        <v>362941.7142391871</v>
       </c>
       <c r="K2" t="n">
         <v>362941.714239187</v>
       </c>
       <c r="L2" t="n">
-        <v>362941.714239187</v>
+        <v>362941.7142391871</v>
       </c>
       <c r="M2" t="n">
-        <v>362941.714239187</v>
+        <v>362941.7142391871</v>
       </c>
       <c r="N2" t="n">
         <v>362941.7142391872</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1072.142137110233</v>
+        <v>1072.142137110236</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>495543.4148014767</v>
+        <v>495543.4148014768</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>837.0644728116869</v>
+        <v>837.0644728116862</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>387659.293842089</v>
+        <v>387659.2938420889</v>
       </c>
       <c r="C4" t="n">
         <v>387659.2938420889</v>
@@ -26435,13 +26435,13 @@
         <v>5935.196540418186</v>
       </c>
       <c r="H4" t="n">
-        <v>5935.196540418186</v>
+        <v>5935.196540418187</v>
       </c>
       <c r="I4" t="n">
         <v>5935.196540418186</v>
       </c>
       <c r="J4" t="n">
-        <v>5935.196540418187</v>
+        <v>5935.196540418186</v>
       </c>
       <c r="K4" t="n">
         <v>5935.196540418187</v>
@@ -26453,13 +26453,13 @@
         <v>5935.196540418186</v>
       </c>
       <c r="N4" t="n">
-        <v>5935.196540418187</v>
+        <v>5935.196540418186</v>
       </c>
       <c r="O4" t="n">
-        <v>5935.196540418187</v>
+        <v>5935.196540418186</v>
       </c>
       <c r="P4" t="n">
-        <v>5935.196540418187</v>
+        <v>5935.196540418186</v>
       </c>
     </row>
     <row r="5">
@@ -26481,31 +26481,31 @@
         <v>36046.77922616519</v>
       </c>
       <c r="F5" t="n">
-        <v>36046.77922616519</v>
+        <v>36046.7792261652</v>
       </c>
       <c r="G5" t="n">
         <v>36046.77922616519</v>
       </c>
       <c r="H5" t="n">
-        <v>36046.77922616519</v>
+        <v>36046.7792261652</v>
       </c>
       <c r="I5" t="n">
         <v>36046.77922616519</v>
       </c>
       <c r="J5" t="n">
-        <v>36046.77922616521</v>
+        <v>36046.77922616519</v>
       </c>
       <c r="K5" t="n">
+        <v>36046.7792261652</v>
+      </c>
+      <c r="L5" t="n">
+        <v>36046.7792261652</v>
+      </c>
+      <c r="M5" t="n">
+        <v>36046.7792261652</v>
+      </c>
+      <c r="N5" t="n">
         <v>36046.77922616519</v>
-      </c>
-      <c r="L5" t="n">
-        <v>36046.77922616519</v>
-      </c>
-      <c r="M5" t="n">
-        <v>36046.77922616519</v>
-      </c>
-      <c r="N5" t="n">
-        <v>36046.77922616521</v>
       </c>
       <c r="O5" t="n">
         <v>36046.77922616519</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>217216.4035390714</v>
+        <v>217184.4727105868</v>
       </c>
       <c r="C6" t="n">
-        <v>218288.5456761819</v>
+        <v>218256.6148476971</v>
       </c>
       <c r="D6" t="n">
-        <v>218288.5456761818</v>
+        <v>218256.614847697</v>
       </c>
       <c r="E6" t="n">
-        <v>-174583.6763288729</v>
+        <v>-184161.4085248471</v>
       </c>
       <c r="F6" t="n">
-        <v>320959.7384726037</v>
+        <v>311382.0062766295</v>
       </c>
       <c r="G6" t="n">
-        <v>320959.7384726036</v>
+        <v>311382.0062766293</v>
       </c>
       <c r="H6" t="n">
-        <v>320959.7384726037</v>
+        <v>311382.0062766295</v>
       </c>
       <c r="I6" t="n">
-        <v>320959.7384726036</v>
+        <v>311382.0062766295</v>
       </c>
       <c r="J6" t="n">
-        <v>320122.673999792</v>
+        <v>310544.9418038177</v>
       </c>
       <c r="K6" t="n">
-        <v>320959.7384726036</v>
+        <v>311382.0062766294</v>
       </c>
       <c r="L6" t="n">
-        <v>320959.7384726036</v>
+        <v>311382.0062766295</v>
       </c>
       <c r="M6" t="n">
-        <v>215004.7031808162</v>
+        <v>205426.970984842</v>
       </c>
       <c r="N6" t="n">
-        <v>320959.7384726038</v>
+        <v>311382.0062766296</v>
       </c>
       <c r="O6" t="n">
-        <v>320959.7384726037</v>
+        <v>311382.0062766295</v>
       </c>
       <c r="P6" t="n">
-        <v>320959.7384726037</v>
+        <v>311382.0062766295</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>458.793212902425</v>
       </c>
       <c r="F3" t="n">
-        <v>458.793212902425</v>
+        <v>458.7932129024251</v>
       </c>
       <c r="G3" t="n">
         <v>458.793212902425</v>
@@ -26801,31 +26801,31 @@
         <v>428.3731444883607</v>
       </c>
       <c r="F4" t="n">
-        <v>428.3731444883606</v>
+        <v>428.3731444883608</v>
       </c>
       <c r="G4" t="n">
         <v>428.3731444883607</v>
       </c>
       <c r="H4" t="n">
-        <v>428.3731444883607</v>
+        <v>428.3731444883608</v>
       </c>
       <c r="I4" t="n">
         <v>428.3731444883607</v>
       </c>
       <c r="J4" t="n">
+        <v>428.3731444883607</v>
+      </c>
+      <c r="K4" t="n">
         <v>428.3731444883608</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>428.3731444883608</v>
+      </c>
+      <c r="M4" t="n">
+        <v>428.3731444883608</v>
+      </c>
+      <c r="N4" t="n">
         <v>428.3731444883607</v>
-      </c>
-      <c r="L4" t="n">
-        <v>428.3731444883607</v>
-      </c>
-      <c r="M4" t="n">
-        <v>428.3731444883607</v>
-      </c>
-      <c r="N4" t="n">
-        <v>428.3731444883608</v>
       </c>
       <c r="O4" t="n">
         <v>428.3731444883607</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>425.1738948483471</v>
+        <v>425.1738948483472</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.19924964001348</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>425.173894848347</v>
+        <v>425.1738948483472</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>425.1738948483471</v>
+        <v>425.1738948483472</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C2" t="n">
-        <v>350.2054973811788</v>
+        <v>350.3354128343698</v>
       </c>
       <c r="D2" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E2" t="n">
-        <v>371.6088275148272</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27469,7 +27469,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F3" t="n">
-        <v>158.8234391199283</v>
+        <v>155.6241894799149</v>
       </c>
       <c r="G3" t="n">
         <v>148.9622183950918</v>
@@ -27508,10 +27508,10 @@
         <v>145.0317031582867</v>
       </c>
       <c r="S3" t="n">
-        <v>192.4336248079265</v>
+        <v>195.63287444794</v>
       </c>
       <c r="T3" t="n">
-        <v>213.0301613335635</v>
+        <v>215.8480604164874</v>
       </c>
       <c r="U3" t="n">
         <v>237.2423862021824</v>
@@ -27520,7 +27520,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W3" t="n">
-        <v>266.7045835770116</v>
+        <v>263.8866844940877</v>
       </c>
       <c r="X3" t="n">
         <v>217.3129144394706</v>
@@ -27645,7 +27645,7 @@
         <v>58.46339092876153</v>
       </c>
       <c r="L5" t="n">
-        <v>17.12047468788361</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>250.1830790232068</v>
       </c>
       <c r="V5" t="n">
-        <v>320.879783609152</v>
+        <v>321.009699062343</v>
       </c>
       <c r="W5" t="n">
         <v>337.8964638257669</v>
@@ -27700,13 +27700,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D6" t="n">
-        <v>159.1723150765785</v>
+        <v>155.9730654365651</v>
       </c>
       <c r="E6" t="n">
-        <v>171.8275718397997</v>
+        <v>168.6283221997862</v>
       </c>
       <c r="F6" t="n">
-        <v>158.8234391199283</v>
+        <v>155.6241894799149</v>
       </c>
       <c r="G6" t="n">
         <v>148.9622183950918</v>
@@ -27742,19 +27742,19 @@
         <v>34.64768193211606</v>
       </c>
       <c r="R6" t="n">
-        <v>145.0317031582867</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S6" t="n">
-        <v>192.4336248079265</v>
+        <v>195.63287444794</v>
       </c>
       <c r="T6" t="n">
-        <v>212.6488107764739</v>
+        <v>215.8480604164874</v>
       </c>
       <c r="U6" t="n">
-        <v>234.4244871192585</v>
+        <v>237.2423862021824</v>
       </c>
       <c r="V6" t="n">
-        <v>240.6489209154022</v>
+        <v>237.8310218324784</v>
       </c>
       <c r="W6" t="n">
         <v>266.7045835770116</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>351.1867109187684</v>
+        <v>351.3166263719594</v>
       </c>
       <c r="I8" t="n">
         <v>256.6898085504863</v>
@@ -27882,7 +27882,7 @@
         <v>58.46339092876153</v>
       </c>
       <c r="L8" t="n">
-        <v>17.12047468788361</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -27946,16 +27946,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
-        <v>148.9622183950918</v>
+        <v>145.7629687550784</v>
       </c>
       <c r="H9" t="n">
         <v>127.8372169228968</v>
       </c>
       <c r="I9" t="n">
-        <v>114.855819447717</v>
+        <v>111.6565698077035</v>
       </c>
       <c r="J9" t="n">
-        <v>73.03491363274843</v>
+        <v>69.83566399273495</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27976,16 +27976,16 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>31.44843229210258</v>
+        <v>31.82978284919219</v>
       </c>
       <c r="R9" t="n">
-        <v>145.0317031582867</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
-        <v>192.4336248079265</v>
+        <v>195.63287444794</v>
       </c>
       <c r="T9" t="n">
-        <v>213.0301613335635</v>
+        <v>215.8480604164874</v>
       </c>
       <c r="U9" t="n">
         <v>237.2423862021824</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.84439482573839</v>
+        <v>1.844394825738391</v>
       </c>
       <c r="H11" t="n">
-        <v>18.88890850909329</v>
+        <v>18.8889085090933</v>
       </c>
       <c r="I11" t="n">
         <v>71.10603151927937</v>
       </c>
       <c r="J11" t="n">
-        <v>156.5407053410138</v>
+        <v>156.5407053410139</v>
       </c>
       <c r="K11" t="n">
         <v>234.61393831452</v>
@@ -31773,7 +31773,7 @@
         <v>323.8595929449364</v>
       </c>
       <c r="N11" t="n">
-        <v>329.0999797435656</v>
+        <v>329.0999797435657</v>
       </c>
       <c r="O11" t="n">
         <v>310.7597786951295</v>
@@ -31788,10 +31788,10 @@
         <v>115.8579664722893</v>
       </c>
       <c r="S11" t="n">
-        <v>42.02914709151361</v>
+        <v>42.02914709151362</v>
       </c>
       <c r="T11" t="n">
-        <v>8.073838349669808</v>
+        <v>8.07383834966981</v>
       </c>
       <c r="U11" t="n">
         <v>0.1475515860590712</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9868382315259707</v>
+        <v>0.9868382315259708</v>
       </c>
       <c r="H12" t="n">
-        <v>9.530779762369244</v>
+        <v>9.530779762369246</v>
       </c>
       <c r="I12" t="n">
         <v>33.97666718192487</v>
       </c>
       <c r="J12" t="n">
-        <v>93.23457168991639</v>
+        <v>93.23457168991641</v>
       </c>
       <c r="K12" t="n">
-        <v>159.3527332021564</v>
+        <v>159.3527332021565</v>
       </c>
       <c r="L12" t="n">
         <v>214.2694151390052</v>
@@ -31855,7 +31855,7 @@
         <v>256.6601767160462</v>
       </c>
       <c r="O12" t="n">
-        <v>234.7939190596023</v>
+        <v>234.7939190596024</v>
       </c>
       <c r="P12" t="n">
         <v>188.4428198428847</v>
@@ -31864,7 +31864,7 @@
         <v>125.9690346067187</v>
       </c>
       <c r="R12" t="n">
-        <v>61.2705351117616</v>
+        <v>61.27053511176162</v>
       </c>
       <c r="S12" t="n">
         <v>18.33008732680914</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8273320232666679</v>
+        <v>0.827332023266668</v>
       </c>
       <c r="H13" t="n">
-        <v>7.355733806861834</v>
+        <v>7.355733806861835</v>
       </c>
       <c r="I13" t="n">
         <v>24.88013029969217</v>
@@ -31922,7 +31922,7 @@
         <v>58.49237404495342</v>
       </c>
       <c r="K13" t="n">
-        <v>96.12093870316376</v>
+        <v>96.12093870316377</v>
       </c>
       <c r="L13" t="n">
         <v>123.001708259119</v>
@@ -31943,13 +31943,13 @@
         <v>69.27777514826617</v>
       </c>
       <c r="R13" t="n">
-        <v>37.19985624615398</v>
+        <v>37.19985624615399</v>
       </c>
       <c r="S13" t="n">
         <v>14.41814080547456</v>
       </c>
       <c r="T13" t="n">
-        <v>3.534964099412125</v>
+        <v>3.534964099412126</v>
       </c>
       <c r="U13" t="n">
         <v>0.04512720126909103</v>
@@ -31989,34 +31989,34 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.84439482573839</v>
+        <v>1.844394825738391</v>
       </c>
       <c r="H14" t="n">
-        <v>18.88890850909329</v>
+        <v>18.8889085090933</v>
       </c>
       <c r="I14" t="n">
-        <v>71.10603151927937</v>
+        <v>71.10603151927938</v>
       </c>
       <c r="J14" t="n">
-        <v>156.5407053410138</v>
+        <v>156.5407053410139</v>
       </c>
       <c r="K14" t="n">
         <v>234.61393831452</v>
       </c>
       <c r="L14" t="n">
-        <v>291.0593364627113</v>
+        <v>291.0593364627114</v>
       </c>
       <c r="M14" t="n">
-        <v>323.8595929449364</v>
+        <v>323.8595929449365</v>
       </c>
       <c r="N14" t="n">
-        <v>329.0999797435656</v>
+        <v>329.0999797435657</v>
       </c>
       <c r="O14" t="n">
-        <v>310.7597786951295</v>
+        <v>310.7597786951296</v>
       </c>
       <c r="P14" t="n">
-        <v>265.2262814347129</v>
+        <v>265.226281434713</v>
       </c>
       <c r="Q14" t="n">
         <v>199.1738917379568</v>
@@ -32025,10 +32025,10 @@
         <v>115.8579664722893</v>
       </c>
       <c r="S14" t="n">
-        <v>42.02914709151361</v>
+        <v>42.02914709151362</v>
       </c>
       <c r="T14" t="n">
-        <v>8.073838349669808</v>
+        <v>8.07383834966981</v>
       </c>
       <c r="U14" t="n">
         <v>0.1475515860590712</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9868382315259707</v>
+        <v>0.9868382315259709</v>
       </c>
       <c r="H15" t="n">
-        <v>9.530779762369244</v>
+        <v>9.530779762369248</v>
       </c>
       <c r="I15" t="n">
-        <v>33.97666718192487</v>
+        <v>33.97666718192488</v>
       </c>
       <c r="J15" t="n">
-        <v>93.23457168991639</v>
+        <v>93.23457168991642</v>
       </c>
       <c r="K15" t="n">
-        <v>159.3527332021564</v>
+        <v>159.3527332021565</v>
       </c>
       <c r="L15" t="n">
         <v>214.2694151390052</v>
@@ -32089,19 +32089,19 @@
         <v>250.0423010318216</v>
       </c>
       <c r="N15" t="n">
-        <v>256.6601767160462</v>
+        <v>256.6601767160463</v>
       </c>
       <c r="O15" t="n">
-        <v>234.7939190596023</v>
+        <v>234.7939190596024</v>
       </c>
       <c r="P15" t="n">
-        <v>188.4428198428847</v>
+        <v>188.4428198428848</v>
       </c>
       <c r="Q15" t="n">
         <v>125.9690346067187</v>
       </c>
       <c r="R15" t="n">
-        <v>61.2705351117616</v>
+        <v>61.27053511176162</v>
       </c>
       <c r="S15" t="n">
         <v>18.33008732680914</v>
@@ -32110,7 +32110,7 @@
         <v>3.977650591106872</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06492356786355073</v>
+        <v>0.06492356786355075</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,25 +32147,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8273320232666679</v>
+        <v>0.8273320232666681</v>
       </c>
       <c r="H16" t="n">
-        <v>7.355733806861834</v>
+        <v>7.355733806861836</v>
       </c>
       <c r="I16" t="n">
         <v>24.88013029969217</v>
       </c>
       <c r="J16" t="n">
-        <v>58.49237404495342</v>
+        <v>58.49237404495343</v>
       </c>
       <c r="K16" t="n">
-        <v>96.12093870316376</v>
+        <v>96.12093870316377</v>
       </c>
       <c r="L16" t="n">
         <v>123.001708259119</v>
       </c>
       <c r="M16" t="n">
-        <v>129.6880552471559</v>
+        <v>129.688055247156</v>
       </c>
       <c r="N16" t="n">
         <v>126.6043631604348</v>
@@ -32177,19 +32177,19 @@
         <v>100.0620476139977</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.27777514826617</v>
+        <v>69.27777514826619</v>
       </c>
       <c r="R16" t="n">
-        <v>37.19985624615398</v>
+        <v>37.19985624615399</v>
       </c>
       <c r="S16" t="n">
         <v>14.41814080547456</v>
       </c>
       <c r="T16" t="n">
-        <v>3.534964099412125</v>
+        <v>3.534964099412126</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04512720126909103</v>
+        <v>0.04512720126909104</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.84439482573839</v>
+        <v>1.844394825738391</v>
       </c>
       <c r="H17" t="n">
-        <v>18.88890850909329</v>
+        <v>18.8889085090933</v>
       </c>
       <c r="I17" t="n">
         <v>71.10603151927937</v>
       </c>
       <c r="J17" t="n">
-        <v>156.5407053410138</v>
+        <v>156.5407053410139</v>
       </c>
       <c r="K17" t="n">
         <v>234.61393831452</v>
@@ -32247,7 +32247,7 @@
         <v>323.8595929449364</v>
       </c>
       <c r="N17" t="n">
-        <v>329.0999797435656</v>
+        <v>329.0999797435657</v>
       </c>
       <c r="O17" t="n">
         <v>310.7597786951295</v>
@@ -32262,10 +32262,10 @@
         <v>115.8579664722893</v>
       </c>
       <c r="S17" t="n">
-        <v>42.02914709151361</v>
+        <v>42.02914709151362</v>
       </c>
       <c r="T17" t="n">
-        <v>8.073838349669808</v>
+        <v>8.07383834966981</v>
       </c>
       <c r="U17" t="n">
         <v>0.1475515860590712</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9868382315259707</v>
+        <v>0.9868382315259708</v>
       </c>
       <c r="H18" t="n">
-        <v>9.530779762369244</v>
+        <v>9.530779762369246</v>
       </c>
       <c r="I18" t="n">
         <v>33.97666718192487</v>
       </c>
       <c r="J18" t="n">
-        <v>93.23457168991639</v>
+        <v>93.23457168991641</v>
       </c>
       <c r="K18" t="n">
-        <v>159.3527332021564</v>
+        <v>159.3527332021565</v>
       </c>
       <c r="L18" t="n">
         <v>214.2694151390052</v>
@@ -32329,7 +32329,7 @@
         <v>256.6601767160462</v>
       </c>
       <c r="O18" t="n">
-        <v>234.7939190596023</v>
+        <v>234.7939190596024</v>
       </c>
       <c r="P18" t="n">
         <v>188.4428198428847</v>
@@ -32338,7 +32338,7 @@
         <v>125.9690346067187</v>
       </c>
       <c r="R18" t="n">
-        <v>61.2705351117616</v>
+        <v>61.27053511176162</v>
       </c>
       <c r="S18" t="n">
         <v>18.33008732680914</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8273320232666679</v>
+        <v>0.827332023266668</v>
       </c>
       <c r="H19" t="n">
-        <v>7.355733806861834</v>
+        <v>7.355733806861835</v>
       </c>
       <c r="I19" t="n">
         <v>24.88013029969217</v>
@@ -32396,7 +32396,7 @@
         <v>58.49237404495342</v>
       </c>
       <c r="K19" t="n">
-        <v>96.12093870316376</v>
+        <v>96.12093870316377</v>
       </c>
       <c r="L19" t="n">
         <v>123.001708259119</v>
@@ -32417,13 +32417,13 @@
         <v>69.27777514826617</v>
       </c>
       <c r="R19" t="n">
-        <v>37.19985624615398</v>
+        <v>37.19985624615399</v>
       </c>
       <c r="S19" t="n">
         <v>14.41814080547456</v>
       </c>
       <c r="T19" t="n">
-        <v>3.534964099412125</v>
+        <v>3.534964099412126</v>
       </c>
       <c r="U19" t="n">
         <v>0.04512720126909103</v>
@@ -34677,13 +34677,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.129915453191039</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.129915453191039</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>3.199249640013477</v>
@@ -34789,10 +34789,10 @@
         <v>3.199249640013477</v>
       </c>
       <c r="N3" t="n">
+        <v>3.199249640013477</v>
+      </c>
+      <c r="O3" t="n">
         <v>3.069987028295762</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34941,7 +34941,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1299154531910392</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>3.199249640013477</v>
@@ -34971,7 +34971,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.129915453191039</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -35020,19 +35020,19 @@
         <v>3.199249640013477</v>
       </c>
       <c r="L6" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>3.069987028295762</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>3.199249640013477</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35166,7 +35166,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.1299154531910392</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -35178,7 +35178,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1299154531910392</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>3.199249640013477</v>
@@ -35257,16 +35257,16 @@
         <v>3.199249640013477</v>
       </c>
       <c r="L9" t="n">
+        <v>3.069987028295762</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>3.199249640013477</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3.069987028295762</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>3.199249640013477</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>45.23930844996038</v>
+        <v>45.2393084499604</v>
       </c>
       <c r="K11" t="n">
-        <v>176.1505473857584</v>
+        <v>176.1505473857585</v>
       </c>
       <c r="L11" t="n">
         <v>274.0687772280187</v>
       </c>
       <c r="M11" t="n">
-        <v>334.1219581110191</v>
+        <v>334.1219581110192</v>
       </c>
       <c r="N11" t="n">
-        <v>332.6168491746904</v>
+        <v>332.6168491746905</v>
       </c>
       <c r="O11" t="n">
         <v>276.7984782189307</v>
@@ -35430,7 +35430,7 @@
         <v>191.6475895084048</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.54106403874661</v>
+        <v>65.54106403874664</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>20.19965805716797</v>
+        <v>20.19965805716798</v>
       </c>
       <c r="K12" t="n">
-        <v>162.5596512375894</v>
+        <v>162.5596512375895</v>
       </c>
       <c r="L12" t="n">
-        <v>180.5652547100283</v>
+        <v>285.5376155642002</v>
       </c>
       <c r="M12" t="n">
         <v>378.4156609569592</v>
       </c>
       <c r="N12" t="n">
-        <v>407.0371465490023</v>
+        <v>302.0647856948304</v>
       </c>
       <c r="O12" t="n">
         <v>316.0492837287009</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>7.894724326445456</v>
+        <v>7.89472432644547</v>
       </c>
       <c r="L13" t="n">
-        <v>63.72600979493554</v>
+        <v>63.72600979493555</v>
       </c>
       <c r="M13" t="n">
-        <v>75.87285910039854</v>
+        <v>75.87285910039857</v>
       </c>
       <c r="N13" t="n">
-        <v>82.16587942806156</v>
+        <v>82.16587942806157</v>
       </c>
       <c r="O13" t="n">
-        <v>53.67364378248145</v>
+        <v>53.67364378248146</v>
       </c>
       <c r="P13" t="n">
-        <v>19.51813570153622</v>
+        <v>19.51813570153624</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.23930844996038</v>
+        <v>45.23930844996043</v>
       </c>
       <c r="K14" t="n">
-        <v>176.1505473857584</v>
+        <v>176.1505473857585</v>
       </c>
       <c r="L14" t="n">
-        <v>274.0687772280187</v>
+        <v>274.0687772280188</v>
       </c>
       <c r="M14" t="n">
-        <v>334.1219581110191</v>
+        <v>334.1219581110192</v>
       </c>
       <c r="N14" t="n">
-        <v>332.6168491746904</v>
+        <v>332.6168491746905</v>
       </c>
       <c r="O14" t="n">
-        <v>276.7984782189307</v>
+        <v>276.7984782189308</v>
       </c>
       <c r="P14" t="n">
-        <v>191.6475895084048</v>
+        <v>191.6475895084049</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.54106403874661</v>
+        <v>65.54106403874664</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>20.19965805716797</v>
+        <v>20.19965805716799</v>
       </c>
       <c r="K15" t="n">
-        <v>162.5596512375894</v>
+        <v>162.5596512375895</v>
       </c>
       <c r="L15" t="n">
-        <v>285.5376155642002</v>
+        <v>285.5376155642003</v>
       </c>
       <c r="M15" t="n">
         <v>378.4156609569592</v>
       </c>
       <c r="N15" t="n">
-        <v>407.0371465490023</v>
+        <v>210.7434330202277</v>
       </c>
       <c r="O15" t="n">
-        <v>316.0492837287009</v>
+        <v>316.049283728701</v>
       </c>
       <c r="P15" t="n">
-        <v>35.06420334730606</v>
+        <v>231.3579168760812</v>
       </c>
       <c r="Q15" t="n">
-        <v>91.32135267460259</v>
+        <v>91.32135267460262</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.894724326445456</v>
+        <v>7.89472432644547</v>
       </c>
       <c r="L16" t="n">
-        <v>63.72600979493554</v>
+        <v>63.72600979493556</v>
       </c>
       <c r="M16" t="n">
-        <v>75.87285910039854</v>
+        <v>75.8728591003986</v>
       </c>
       <c r="N16" t="n">
-        <v>82.16587942806156</v>
+        <v>82.16587942806159</v>
       </c>
       <c r="O16" t="n">
-        <v>53.67364378248145</v>
+        <v>53.67364378248148</v>
       </c>
       <c r="P16" t="n">
-        <v>19.51813570153622</v>
+        <v>19.51813570153625</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>45.23930844996038</v>
+        <v>45.2393084499604</v>
       </c>
       <c r="K17" t="n">
-        <v>176.1505473857584</v>
+        <v>176.1505473857585</v>
       </c>
       <c r="L17" t="n">
         <v>274.0687772280187</v>
       </c>
       <c r="M17" t="n">
-        <v>334.1219581110191</v>
+        <v>334.1219581110192</v>
       </c>
       <c r="N17" t="n">
-        <v>332.6168491746904</v>
+        <v>332.6168491746905</v>
       </c>
       <c r="O17" t="n">
         <v>276.7984782189307</v>
@@ -35904,7 +35904,7 @@
         <v>191.6475895084048</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.54106403874661</v>
+        <v>65.54106403874664</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>20.19965805716797</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>57.58729038341751</v>
+        <v>77.7869484405857</v>
       </c>
       <c r="L18" t="n">
         <v>285.5376155642002</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>7.894724326445456</v>
+        <v>7.89472432644547</v>
       </c>
       <c r="L19" t="n">
-        <v>63.72600979493554</v>
+        <v>63.72600979493555</v>
       </c>
       <c r="M19" t="n">
-        <v>75.87285910039854</v>
+        <v>75.87285910039857</v>
       </c>
       <c r="N19" t="n">
-        <v>82.16587942806156</v>
+        <v>82.16587942806157</v>
       </c>
       <c r="O19" t="n">
-        <v>53.67364378248145</v>
+        <v>53.67364378248146</v>
       </c>
       <c r="P19" t="n">
-        <v>19.51813570153622</v>
+        <v>19.51813570153624</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>20.19965805716797</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>162.5596512375894</v>
@@ -36208,10 +36208,10 @@
         <v>285.5376155642002</v>
       </c>
       <c r="M21" t="n">
-        <v>182.1219474281846</v>
+        <v>378.4156609569592</v>
       </c>
       <c r="N21" t="n">
-        <v>407.0371465490023</v>
+        <v>322.2644437519988</v>
       </c>
       <c r="O21" t="n">
         <v>316.0492837287009</v>
@@ -36220,7 +36220,7 @@
         <v>231.3579168760811</v>
       </c>
       <c r="Q21" t="n">
-        <v>91.32135267460259</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>20.19965805716797</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>162.5596512375894</v>
@@ -36454,10 +36454,10 @@
         <v>316.0492837287009</v>
       </c>
       <c r="P24" t="n">
-        <v>35.06420334730629</v>
+        <v>146.5852140790772</v>
       </c>
       <c r="Q24" t="n">
-        <v>91.32135267460259</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>20.19965805716797</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>162.5596512375894</v>
       </c>
       <c r="L27" t="n">
         <v>285.5376155642002</v>
@@ -36688,13 +36688,13 @@
         <v>407.0371465490023</v>
       </c>
       <c r="O27" t="n">
-        <v>316.0492837287009</v>
+        <v>231.2765809316971</v>
       </c>
       <c r="P27" t="n">
-        <v>197.6238545848965</v>
+        <v>231.3579168760811</v>
       </c>
       <c r="Q27" t="n">
-        <v>91.32135267460259</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36922,13 +36922,13 @@
         <v>378.4156609569592</v>
       </c>
       <c r="N30" t="n">
-        <v>407.0371465490023</v>
+        <v>322.2644437519988</v>
       </c>
       <c r="O30" t="n">
         <v>316.0492837287009</v>
       </c>
       <c r="P30" t="n">
-        <v>146.5852140790772</v>
+        <v>231.3579168760811</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>20.19965805716797</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>162.5596512375894</v>
+        <v>77.78694844058593</v>
       </c>
       <c r="L33" t="n">
         <v>285.5376155642002</v>
@@ -37165,7 +37165,7 @@
         <v>316.0492837287009</v>
       </c>
       <c r="P33" t="n">
-        <v>126.385556021909</v>
+        <v>231.3579168760811</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>20.19965805716797</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>162.5596512375894</v>
+        <v>77.78694844058593</v>
       </c>
       <c r="L36" t="n">
         <v>285.5376155642002</v>
@@ -37402,7 +37402,7 @@
         <v>316.0492837287009</v>
       </c>
       <c r="P36" t="n">
-        <v>126.385556021909</v>
+        <v>231.3579168760811</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>20.19965805716797</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>162.5596512375894</v>
       </c>
       <c r="L39" t="n">
         <v>285.5376155642002</v>
@@ -37633,7 +37633,7 @@
         <v>378.4156609569592</v>
       </c>
       <c r="N39" t="n">
-        <v>373.3030842578177</v>
+        <v>210.7434330202276</v>
       </c>
       <c r="O39" t="n">
         <v>316.0492837287009</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>45.2393084499604</v>
+        <v>45.23930844996003</v>
       </c>
       <c r="K41" t="n">
         <v>176.1505473857585</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>20.19965805716798</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>77.78694844058525</v>
       </c>
       <c r="L42" t="n">
-        <v>251.8035532730153</v>
+        <v>285.5376155642002</v>
       </c>
       <c r="M42" t="n">
         <v>378.4156609569592</v>
@@ -37879,7 +37879,7 @@
         <v>231.3579168760811</v>
       </c>
       <c r="Q42" t="n">
-        <v>91.32135267460261</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>191.6475895084048</v>
       </c>
       <c r="Q44" t="n">
-        <v>65.54106403874665</v>
+        <v>65.54106403874664</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>20.19965805716798</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>57.58729038341773</v>
+        <v>77.7869484405857</v>
       </c>
       <c r="L45" t="n">
         <v>285.5376155642002</v>
